--- a/data/output/datasets/gasto_publico_dataset.xlsx
+++ b/data/output/datasets/gasto_publico_dataset.xlsx
@@ -1,177 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
-  <si>
-    <t>gasto_publico</t>
-  </si>
-  <si>
-    <t>tasa_int_lider_pm</t>
-  </si>
-  <si>
-    <t>egreso_div_prest_cap_oficial</t>
-  </si>
-  <si>
-    <t>egreso_div_prest_cap_priv</t>
-  </si>
-  <si>
-    <t>egreso_div_servicios_gob</t>
-  </si>
-  <si>
-    <t>egreso_div_servicios_trans</t>
-  </si>
-  <si>
-    <t>egreso_div_transf_donaciones</t>
-  </si>
-  <si>
-    <t>egreso_div_turismo_viajes</t>
-  </si>
-  <si>
-    <t>ingreso_div_prest_cap_oficial</t>
-  </si>
-  <si>
-    <t>ingreso_div_prest_cap_priv</t>
-  </si>
-  <si>
-    <t>ingreso_div_rend_inv</t>
-  </si>
-  <si>
-    <t>ingreso_div_servicios_seg</t>
-  </si>
-  <si>
-    <t>ingreso_div_servicios_trans</t>
-  </si>
-  <si>
-    <t>ingreso_div_transf_donaciones</t>
-  </si>
-  <si>
-    <t>ingreso_div_turismo_viajes</t>
-  </si>
-  <si>
-    <t>deuda_pub_externa</t>
-  </si>
-  <si>
-    <t>deuda_pub_externa_gob_ctral</t>
-  </si>
-  <si>
-    <t>deuda_pub_externa_sector_pub</t>
-  </si>
-  <si>
-    <t>deuda_pub_interna_sector_pub_no_fina</t>
-  </si>
-  <si>
-    <t>deuda_pub_interna_intragub_banguat</t>
-  </si>
-  <si>
-    <t>deuda_pub_interna_intragub_sector_pub_no_fina</t>
-  </si>
-  <si>
-    <t>financiamiento_externo_gob_ctral</t>
-  </si>
-  <si>
-    <t>financiamiento_interno_gob_ctral</t>
-  </si>
-  <si>
-    <t>financiamiento_total_gob_ctral</t>
-  </si>
-  <si>
-    <t>donaciones_gob_ctral</t>
-  </si>
-  <si>
-    <t>ingresos_no_trib_gob_ctral</t>
-  </si>
-  <si>
-    <t>ingresos_totales_gob_ctral</t>
-  </si>
-  <si>
-    <t>ingresos_trib_gob</t>
-  </si>
-  <si>
-    <t>emision_monetaria</t>
-  </si>
-  <si>
-    <t>medio_circulante</t>
-  </si>
-  <si>
-    <t>medios_pago_me</t>
-  </si>
-  <si>
-    <t>medios_pago_mn</t>
-  </si>
-  <si>
-    <t>medios_pago_totales</t>
-  </si>
-  <si>
-    <t>numerario_circulacion</t>
-  </si>
-  <si>
-    <t>pos_neta_banguat_sec_pub</t>
-  </si>
-  <si>
-    <t>elect</t>
-  </si>
-  <si>
-    <t>construc</t>
-  </si>
-  <si>
-    <t>transport</t>
-  </si>
-  <si>
-    <t>taxs</t>
-  </si>
-  <si>
-    <t>comunic</t>
-  </si>
-  <si>
-    <t>admon_publica</t>
-  </si>
-  <si>
-    <t>tipo_cambio_de_referencia_gtq_usd</t>
-  </si>
-  <si>
-    <t>fa</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -186,38 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -505,6171 +426,5405 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
-      <c r="A1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>fa</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>gasto_publico</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tasa_int_lider_pm</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>egreso_div_prest_cap_oficial</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>egreso_div_prest_cap_priv</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>egreso_div_servicios_gob</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>egreso_div_servicios_trans</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>egreso_div_transf_donaciones</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>egreso_div_turismo_viajes</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ingreso_div_prest_cap_oficial</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ingreso_div_prest_cap_priv</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ingreso_div_rend_inv</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>ingreso_div_servicios_seg</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ingreso_div_servicios_trans</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>ingreso_div_transf_donaciones</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ingreso_div_turismo_viajes</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>deuda_pub_externa</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>deuda_pub_interna_intragub_sector_pub_no_fina</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>financiamiento_externo_gob_ctral</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>financiamiento_interno_gob_ctral</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>gastos_totales_gob_ctral</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>ingresos_totales_gob_ctral</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>ingresos_trib_gob</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>emision_monetaria</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>medio_circulante</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>medios_pago_me</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>medios_pago_mn</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>medios_pago_totales</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>numerario_circulacion</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>pos_neta_banguat_sec_pub</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>elect</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>construc</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>transport</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>taxs</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>comunic</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>admon_publica</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>tipo_cambio_de_referencia_gtq_usd</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:43">
-      <c r="A2" s="2">
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>41364</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>85731.61</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>4.126666666666666</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>101823.71</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>2767166.03</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>2086.23</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>20026.55</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>18423.77</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>229962.61</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>711223.8099999999</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>3758803.84</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>26491.33</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>18412.12</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>39736.91</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>1265148.32</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>328378.54</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>20107.68</v>
       </c>
-      <c r="R2">
-        <v>19780.74</v>
-      </c>
-      <c r="S2">
-        <v>326.94</v>
-      </c>
-      <c r="T2">
-        <v>147251.08</v>
-      </c>
-      <c r="U2">
-        <v>18680.4</v>
-      </c>
-      <c r="V2">
+      <c r="R2" t="n">
         <v>43864.45</v>
       </c>
-      <c r="W2">
+      <c r="S2" t="n">
         <v>4815.240000000001</v>
       </c>
-      <c r="X2">
+      <c r="T2" t="n">
         <v>-5385.570000000001</v>
       </c>
-      <c r="Y2">
-        <v>-570.3200000000001</v>
-      </c>
-      <c r="Z2">
-        <v>15.79</v>
-      </c>
-      <c r="AA2">
-        <v>465.11</v>
-      </c>
-      <c r="AB2">
+      <c r="U2" t="n">
+        <v>11591.43</v>
+      </c>
+      <c r="V2" t="n">
         <v>12194.02</v>
       </c>
-      <c r="AC2">
+      <c r="W2" t="n">
         <v>11678.73</v>
       </c>
-      <c r="AD2">
+      <c r="X2" t="n">
         <v>73675.39999999999</v>
       </c>
-      <c r="AE2">
+      <c r="Y2" t="n">
         <v>176440</v>
       </c>
-      <c r="AF2">
+      <c r="Z2" t="n">
         <v>82495.89999999999</v>
       </c>
-      <c r="AG2">
+      <c r="AA2" t="n">
         <v>381389.6</v>
       </c>
-      <c r="AH2">
+      <c r="AB2" t="n">
         <v>463885.6</v>
       </c>
-      <c r="AI2">
+      <c r="AC2" t="n">
         <v>61758.39999999999</v>
       </c>
-      <c r="AJ2">
+      <c r="AD2" t="n">
         <v>-27609.4</v>
       </c>
-      <c r="AK2">
+      <c r="AE2" t="n">
         <v>93.38</v>
       </c>
-      <c r="AL2">
+      <c r="AF2" t="n">
         <v>90.24666666666667</v>
       </c>
-      <c r="AM2">
+      <c r="AG2" t="n">
         <v>99.73666666666668</v>
       </c>
-      <c r="AN2">
+      <c r="AH2" t="n">
         <v>98.49333333333334</v>
       </c>
-      <c r="AO2">
+      <c r="AI2" t="n">
         <v>93.15333333333335</v>
       </c>
-      <c r="AP2">
+      <c r="AJ2" t="n">
         <v>97.95666666666666</v>
       </c>
-      <c r="AQ2">
+      <c r="AK2" t="n">
         <v>7.841922666666666</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
-      <c r="A3" s="2">
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>41455</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>88630.94</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>4.396666666666666</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>44092.43</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>2728988.92</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>6545.25</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>20557.1</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>25280.12</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>192368.52</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>104737.61</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>3761851.819999999</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>24749.58</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>17792.33</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>51635.66</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>1476906.35</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>275599.86</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>20864.98</v>
       </c>
-      <c r="R3">
-        <v>20548.79</v>
-      </c>
-      <c r="S3">
-        <v>316.19</v>
-      </c>
-      <c r="T3">
-        <v>148558.94</v>
-      </c>
-      <c r="U3">
-        <v>19569.98</v>
-      </c>
-      <c r="V3">
+      <c r="R3" t="n">
         <v>43864.45</v>
       </c>
-      <c r="W3">
+      <c r="S3" t="n">
         <v>597.6600000000001</v>
       </c>
-      <c r="X3">
+      <c r="T3" t="n">
         <v>2113.55</v>
       </c>
-      <c r="Y3">
-        <v>2711.22</v>
-      </c>
-      <c r="Z3">
-        <v>118.38</v>
-      </c>
-      <c r="AA3">
-        <v>639.26</v>
-      </c>
-      <c r="AB3">
+      <c r="U3" t="n">
+        <v>14717.65</v>
+      </c>
+      <c r="V3" t="n">
         <v>12024.68</v>
       </c>
-      <c r="AC3">
+      <c r="W3" t="n">
         <v>11246.89</v>
       </c>
-      <c r="AD3">
+      <c r="X3" t="n">
         <v>72329.5</v>
       </c>
-      <c r="AE3">
+      <c r="Y3" t="n">
         <v>175212.4</v>
       </c>
-      <c r="AF3">
+      <c r="Z3" t="n">
         <v>87974.70000000001</v>
       </c>
-      <c r="AG3">
+      <c r="AA3" t="n">
         <v>386278.8</v>
       </c>
-      <c r="AH3">
+      <c r="AB3" t="n">
         <v>474253.6</v>
       </c>
-      <c r="AI3">
+      <c r="AC3" t="n">
         <v>60130.89999999999</v>
       </c>
-      <c r="AJ3">
+      <c r="AD3" t="n">
         <v>-29546.8</v>
       </c>
-      <c r="AK3">
+      <c r="AE3" t="n">
         <v>91.58333333333333</v>
       </c>
-      <c r="AL3">
+      <c r="AF3" t="n">
         <v>102.2033333333333</v>
       </c>
-      <c r="AM3">
+      <c r="AG3" t="n">
         <v>99.75999999999999</v>
       </c>
-      <c r="AN3">
+      <c r="AH3" t="n">
         <v>98.38333333333333</v>
       </c>
-      <c r="AO3">
+      <c r="AI3" t="n">
         <v>99.85666666666667</v>
       </c>
-      <c r="AP3">
+      <c r="AJ3" t="n">
         <v>99.79000000000001</v>
       </c>
-      <c r="AQ3">
+      <c r="AK3" t="n">
         <v>7.800232857142857</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
-      <c r="A4" s="2">
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>41547</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>89423.33</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>4.456666666666667</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>392037.17</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>3305109.49</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>5846.549999999999</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>18580.5</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>23445.33</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>130908.76</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>22190.62</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>4329890.949999999</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>18691.64</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>20839.21</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>46277.96000000001</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>1469661.63</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>195237.42</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>19911.17</v>
       </c>
-      <c r="R4">
-        <v>19603.96</v>
-      </c>
-      <c r="S4">
-        <v>307.21</v>
-      </c>
-      <c r="T4">
-        <v>148252.12</v>
-      </c>
-      <c r="U4">
-        <v>21473.8</v>
-      </c>
-      <c r="V4">
+      <c r="R4" t="n">
         <v>43864.47</v>
       </c>
-      <c r="W4">
+      <c r="S4" t="n">
         <v>-2729.27</v>
       </c>
-      <c r="X4">
+      <c r="T4" t="n">
         <v>5002.87</v>
       </c>
-      <c r="Y4">
-        <v>2273.6</v>
-      </c>
-      <c r="Z4">
-        <v>16.15</v>
-      </c>
-      <c r="AA4">
-        <v>739.8199999999999</v>
-      </c>
-      <c r="AB4">
+      <c r="U4" t="n">
+        <v>14722.85</v>
+      </c>
+      <c r="V4" t="n">
         <v>12452.5</v>
       </c>
-      <c r="AC4">
+      <c r="W4" t="n">
         <v>11691.26</v>
       </c>
-      <c r="AD4">
+      <c r="X4" t="n">
         <v>71314.3</v>
       </c>
-      <c r="AE4">
+      <c r="Y4" t="n">
         <v>174192.2</v>
       </c>
-      <c r="AF4">
+      <c r="Z4" t="n">
         <v>89801.8</v>
       </c>
-      <c r="AG4">
+      <c r="AA4" t="n">
         <v>393083.1</v>
       </c>
-      <c r="AH4">
+      <c r="AB4" t="n">
         <v>482885</v>
       </c>
-      <c r="AI4">
+      <c r="AC4" t="n">
         <v>59068.9</v>
       </c>
-      <c r="AJ4">
+      <c r="AD4" t="n">
         <v>-15390.9</v>
       </c>
-      <c r="AK4">
+      <c r="AE4" t="n">
         <v>102.5333333333333</v>
       </c>
-      <c r="AL4">
+      <c r="AF4" t="n">
         <v>101.3366666666667</v>
       </c>
-      <c r="AM4">
+      <c r="AG4" t="n">
         <v>96.43000000000001</v>
       </c>
-      <c r="AN4">
+      <c r="AH4" t="n">
         <v>99.12666666666667</v>
       </c>
-      <c r="AO4">
+      <c r="AI4" t="n">
         <v>97.94333333333333</v>
       </c>
-      <c r="AP4">
+      <c r="AJ4" t="n">
         <v>100.6733333333333</v>
       </c>
-      <c r="AQ4">
+      <c r="AK4" t="n">
         <v>7.884066847826086</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
-      <c r="A5" s="2">
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>41639</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>92464.67</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>4.390000000000001</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>76909.51999999999</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>3374696.37</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>6099.639999999999</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>32281.93</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>29219.07</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>171191.35</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>480400.23</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>4726203.28</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>28856.11</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>26770.59</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>39644.71000000001</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>1445970.06</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>220879.99</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>20501.04</v>
       </c>
-      <c r="R5">
-        <v>20200.85</v>
-      </c>
-      <c r="S5">
-        <v>300.1799999999999</v>
-      </c>
-      <c r="T5">
-        <v>148222.4</v>
-      </c>
-      <c r="U5">
-        <v>22622.88</v>
-      </c>
-      <c r="V5">
+      <c r="R5" t="n">
         <v>43864.47</v>
       </c>
-      <c r="W5">
+      <c r="S5" t="n">
         <v>3680.85</v>
       </c>
-      <c r="X5">
+      <c r="T5" t="n">
         <v>914.42</v>
       </c>
-      <c r="Y5">
-        <v>4595.27</v>
-      </c>
-      <c r="Z5">
-        <v>235.07</v>
-      </c>
-      <c r="AA5">
-        <v>685.3199999999999</v>
-      </c>
-      <c r="AB5">
+      <c r="U5" t="n">
+        <v>17237.01</v>
+      </c>
+      <c r="V5" t="n">
         <v>12587.98</v>
       </c>
-      <c r="AC5">
+      <c r="W5" t="n">
         <v>11718.57</v>
       </c>
-      <c r="AD5">
+      <c r="X5" t="n">
         <v>75193.5</v>
       </c>
-      <c r="AE5">
+      <c r="Y5" t="n">
         <v>179517.1</v>
       </c>
-      <c r="AF5">
+      <c r="Z5" t="n">
         <v>91222.8</v>
       </c>
-      <c r="AG5">
+      <c r="AA5" t="n">
         <v>402691.4</v>
       </c>
-      <c r="AH5">
+      <c r="AB5" t="n">
         <v>493914.1</v>
       </c>
-      <c r="AI5">
+      <c r="AC5" t="n">
         <v>62689.5</v>
       </c>
-      <c r="AJ5">
+      <c r="AD5" t="n">
         <v>-15103.9</v>
       </c>
-      <c r="AK5">
+      <c r="AE5" t="n">
         <v>112.5066666666667</v>
       </c>
-      <c r="AL5">
+      <c r="AF5" t="n">
         <v>106.2166666666667</v>
       </c>
-      <c r="AM5">
+      <c r="AG5" t="n">
         <v>104.07</v>
       </c>
-      <c r="AN5">
+      <c r="AH5" t="n">
         <v>103.9966666666667</v>
       </c>
-      <c r="AO5">
+      <c r="AI5" t="n">
         <v>109.0466666666667</v>
       </c>
-      <c r="AP5">
+      <c r="AJ5" t="n">
         <v>101.58</v>
       </c>
-      <c r="AQ5">
+      <c r="AK5" t="n">
         <v>7.907964565217393</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
-      <c r="A6" s="2">
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>41729</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>91248.72</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>3.63</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>91761.00999999999</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>2864950.21</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>5165.889999999999</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>10652.51</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>18461.2</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>218526.42</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>10690.82</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>3581219.5</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>23631.38</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>18385.24</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>37901.89</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>1374466.99</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>324870.91</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>21097.27</v>
       </c>
-      <c r="R6">
-        <v>20807.37</v>
-      </c>
-      <c r="S6">
-        <v>289.9</v>
-      </c>
-      <c r="T6">
-        <v>153277.42</v>
-      </c>
-      <c r="U6">
-        <v>22819.51</v>
-      </c>
-      <c r="V6">
+      <c r="R6" t="n">
         <v>44268.42</v>
       </c>
-      <c r="W6">
+      <c r="S6" t="n">
         <v>-344.28</v>
       </c>
-      <c r="X6">
+      <c r="T6" t="n">
         <v>-380.7200000000001</v>
       </c>
-      <c r="Y6">
-        <v>-725</v>
-      </c>
-      <c r="Z6">
-        <v>0.15</v>
-      </c>
-      <c r="AA6">
-        <v>694.0700000000001</v>
-      </c>
-      <c r="AB6">
+      <c r="U6" t="n">
+        <v>11896.39</v>
+      </c>
+      <c r="V6" t="n">
         <v>12621.39</v>
       </c>
-      <c r="AC6">
+      <c r="W6" t="n">
         <v>11925.44</v>
       </c>
-      <c r="AD6">
+      <c r="X6" t="n">
         <v>74303.79999999999</v>
       </c>
-      <c r="AE6">
+      <c r="Y6" t="n">
         <v>182997.2</v>
       </c>
-      <c r="AF6">
+      <c r="Z6" t="n">
         <v>95218.79999999999</v>
       </c>
-      <c r="AG6">
+      <c r="AA6" t="n">
         <v>411043.6</v>
       </c>
-      <c r="AH6">
+      <c r="AB6" t="n">
         <v>506262.4</v>
       </c>
-      <c r="AI6">
+      <c r="AC6" t="n">
         <v>61971.50000000001</v>
       </c>
-      <c r="AJ6">
+      <c r="AD6" t="n">
         <v>-11840.3</v>
       </c>
-      <c r="AK6">
+      <c r="AE6" t="n">
         <v>105.45</v>
       </c>
-      <c r="AL6">
+      <c r="AF6" t="n">
         <v>100.5933333333333</v>
       </c>
-      <c r="AM6">
+      <c r="AG6" t="n">
         <v>103.3833333333333</v>
       </c>
-      <c r="AN6">
+      <c r="AH6" t="n">
         <v>101.2633333333333</v>
       </c>
-      <c r="AO6">
+      <c r="AI6" t="n">
         <v>97.38</v>
       </c>
-      <c r="AP6">
+      <c r="AJ6" t="n">
         <v>100.6966666666667</v>
       </c>
-      <c r="AQ6">
+      <c r="AK6" t="n">
         <v>7.78148122222222</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
-      <c r="A7" s="2">
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>41820</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>94483.36</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>3.206666666666667</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>50020.72</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>3100843.57</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>4645.84</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>15118.2</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>23170.25</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>210861.05</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>35727.81</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>3741397.42</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>23360.33</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>22767.88</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>41721.78</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>1611100.28</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>297459.28</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>21071.93</v>
       </c>
-      <c r="R7">
-        <v>20787.11</v>
-      </c>
-      <c r="S7">
-        <v>284.82</v>
-      </c>
-      <c r="T7">
-        <v>169156.22</v>
-      </c>
-      <c r="U7">
-        <v>19719.51</v>
-      </c>
-      <c r="V7">
+      <c r="R7" t="n">
         <v>48928.02</v>
       </c>
-      <c r="W7">
+      <c r="S7" t="n">
         <v>-129.47</v>
       </c>
-      <c r="X7">
+      <c r="T7" t="n">
         <v>3292.58</v>
       </c>
-      <c r="Y7">
-        <v>3163.12</v>
-      </c>
-      <c r="Z7">
-        <v>78.67</v>
-      </c>
-      <c r="AA7">
-        <v>727.79</v>
-      </c>
-      <c r="AB7">
+      <c r="U7" t="n">
+        <v>16008.17</v>
+      </c>
+      <c r="V7" t="n">
         <v>12845.06</v>
       </c>
-      <c r="AC7">
+      <c r="W7" t="n">
         <v>12036.56</v>
       </c>
-      <c r="AD7">
+      <c r="X7" t="n">
         <v>75240</v>
       </c>
-      <c r="AE7">
+      <c r="Y7" t="n">
         <v>184572.6</v>
       </c>
-      <c r="AF7">
+      <c r="Z7" t="n">
         <v>95906.3</v>
       </c>
-      <c r="AG7">
+      <c r="AA7" t="n">
         <v>417864.7</v>
       </c>
-      <c r="AH7">
+      <c r="AB7" t="n">
         <v>513771.1</v>
       </c>
-      <c r="AI7">
+      <c r="AC7" t="n">
         <v>62918.7</v>
       </c>
-      <c r="AJ7">
+      <c r="AD7" t="n">
         <v>-21923.2</v>
       </c>
-      <c r="AK7">
+      <c r="AE7" t="n">
         <v>103.63</v>
       </c>
-      <c r="AL7">
+      <c r="AF7" t="n">
         <v>107.0266666666667</v>
       </c>
-      <c r="AM7">
+      <c r="AG7" t="n">
         <v>104.3133333333333</v>
       </c>
-      <c r="AN7">
+      <c r="AH7" t="n">
         <v>100.32</v>
       </c>
-      <c r="AO7">
+      <c r="AI7" t="n">
         <v>101.32</v>
       </c>
-      <c r="AP7">
+      <c r="AJ7" t="n">
         <v>104.0766666666667</v>
       </c>
-      <c r="AQ7">
+      <c r="AK7" t="n">
         <v>7.763099780219778</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
-      <c r="A8" s="2">
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>41912</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>96950.88</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>3.52</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>112107.2</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>2812657.85</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>4645.81</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>17207.59</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>16760.04</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>146306.9</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>45808.99</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>3796169.97</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>28360.51</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>16759.96</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>31647.17</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>1583962.33</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>210438.93</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>20998.37</v>
       </c>
-      <c r="R8">
-        <v>20726.95</v>
-      </c>
-      <c r="S8">
-        <v>271.42</v>
-      </c>
-      <c r="T8">
-        <v>167570.45</v>
-      </c>
-      <c r="U8">
-        <v>21033.52</v>
-      </c>
-      <c r="V8">
+      <c r="R8" t="n">
         <v>49195.68000000001</v>
       </c>
-      <c r="W8">
+      <c r="S8" t="n">
         <v>-2.780000000000001</v>
       </c>
-      <c r="X8">
+      <c r="T8" t="n">
         <v>2402.88</v>
       </c>
-      <c r="Y8">
-        <v>2400.11</v>
-      </c>
-      <c r="Z8">
-        <v>29.69</v>
-      </c>
-      <c r="AA8">
-        <v>767.87</v>
-      </c>
-      <c r="AB8">
+      <c r="U8" t="n">
+        <v>15918.75</v>
+      </c>
+      <c r="V8" t="n">
         <v>13518.65</v>
       </c>
-      <c r="AC8">
+      <c r="W8" t="n">
         <v>12719.22</v>
       </c>
-      <c r="AD8">
+      <c r="X8" t="n">
         <v>76497.10000000001</v>
       </c>
-      <c r="AE8">
+      <c r="Y8" t="n">
         <v>184860.4</v>
       </c>
-      <c r="AF8">
+      <c r="Z8" t="n">
         <v>99541.8</v>
       </c>
-      <c r="AG8">
+      <c r="AA8" t="n">
         <v>426033.5</v>
       </c>
-      <c r="AH8">
+      <c r="AB8" t="n">
         <v>525575.3</v>
       </c>
-      <c r="AI8">
+      <c r="AC8" t="n">
         <v>64152.7</v>
       </c>
-      <c r="AJ8">
+      <c r="AD8" t="n">
         <v>-12687</v>
       </c>
-      <c r="AK8">
+      <c r="AE8" t="n">
         <v>99.74333333333334</v>
       </c>
-      <c r="AL8">
+      <c r="AF8" t="n">
         <v>108.09</v>
       </c>
-      <c r="AM8">
+      <c r="AG8" t="n">
         <v>102.4266666666667</v>
       </c>
-      <c r="AN8">
+      <c r="AH8" t="n">
         <v>102.44</v>
       </c>
-      <c r="AO8">
+      <c r="AI8" t="n">
         <v>99.36000000000001</v>
       </c>
-      <c r="AP8">
+      <c r="AJ8" t="n">
         <v>104.3066666666667</v>
       </c>
-      <c r="AQ8">
+      <c r="AK8" t="n">
         <v>7.767900108695654</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
-      <c r="A9" s="2">
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>42004</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>98743.28999999999</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>3.323333333333333</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>65517.31999999999</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>3896159.63</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>4640.030000000001</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>19116.75</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>15925.3</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>162167.67</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>42437.2</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>4958893.24</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>16977.12</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>22725.78</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>29016.96</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="n">
         <v>1548085.41</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="n">
         <v>206870.83</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="n">
         <v>21053.7</v>
       </c>
-      <c r="R9">
-        <v>20794.3</v>
-      </c>
-      <c r="S9">
-        <v>259.39</v>
-      </c>
-      <c r="T9">
-        <v>167367.58</v>
-      </c>
-      <c r="U9">
-        <v>20665.78</v>
-      </c>
-      <c r="V9">
+      <c r="R9" t="n">
         <v>49200.68000000001</v>
       </c>
-      <c r="W9">
+      <c r="S9" t="n">
         <v>599.13</v>
       </c>
-      <c r="X9">
+      <c r="T9" t="n">
         <v>3157.05</v>
       </c>
-      <c r="Y9">
-        <v>3756.18</v>
-      </c>
-      <c r="Z9">
-        <v>70.78999999999999</v>
-      </c>
-      <c r="AA9">
-        <v>751.16</v>
-      </c>
-      <c r="AB9">
+      <c r="U9" t="n">
+        <v>16995.38</v>
+      </c>
+      <c r="V9" t="n">
         <v>13239.21</v>
       </c>
-      <c r="AC9">
+      <c r="W9" t="n">
         <v>12415.66</v>
       </c>
-      <c r="AD9">
+      <c r="X9" t="n">
         <v>80904.89999999999</v>
       </c>
-      <c r="AE9">
+      <c r="Y9" t="n">
         <v>192055.9</v>
       </c>
-      <c r="AF9">
+      <c r="Z9" t="n">
         <v>101026.1</v>
       </c>
-      <c r="AG9">
+      <c r="AA9" t="n">
         <v>436291.2</v>
       </c>
-      <c r="AH9">
+      <c r="AB9" t="n">
         <v>537317.3</v>
       </c>
-      <c r="AI9">
+      <c r="AC9" t="n">
         <v>67570.70000000001</v>
       </c>
-      <c r="AJ9">
+      <c r="AD9" t="n">
         <v>-9781.599999999999</v>
       </c>
-      <c r="AK9">
+      <c r="AE9" t="n">
         <v>117.25</v>
       </c>
-      <c r="AL9">
+      <c r="AF9" t="n">
         <v>114.0933333333333</v>
       </c>
-      <c r="AM9">
+      <c r="AG9" t="n">
         <v>109.8733333333333</v>
       </c>
-      <c r="AN9">
+      <c r="AH9" t="n">
         <v>110.58</v>
       </c>
-      <c r="AO9">
+      <c r="AI9" t="n">
         <v>107.2</v>
       </c>
-      <c r="AP9">
+      <c r="AJ9" t="n">
         <v>106.0566666666667</v>
       </c>
-      <c r="AQ9">
+      <c r="AK9" t="n">
         <v>7.628631739130435</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
-      <c r="A10" s="2">
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>42094</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>96635.61</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>2.396666666666667</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>110078.33</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>3414607.55</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>5681.73</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>19376.01</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>17285.98</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>215491.48</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>440251.72</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>3836207.77</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>28744.59</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>17926.47</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>31502.63</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>1533061.37</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>321809.76</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>22143.05</v>
       </c>
-      <c r="R10">
-        <v>21896.79</v>
-      </c>
-      <c r="S10">
-        <v>246.26</v>
-      </c>
-      <c r="T10">
-        <v>182105.8</v>
-      </c>
-      <c r="U10">
-        <v>20261.66</v>
-      </c>
-      <c r="V10">
+      <c r="R10" t="n">
         <v>49789.01</v>
       </c>
-      <c r="W10">
+      <c r="S10" t="n">
         <v>2737.79</v>
       </c>
-      <c r="X10">
+      <c r="T10" t="n">
         <v>-1376.98</v>
       </c>
-      <c r="Y10">
-        <v>1360.81</v>
-      </c>
-      <c r="Z10">
-        <v>15.73</v>
-      </c>
-      <c r="AA10">
-        <v>768.5699999999999</v>
-      </c>
-      <c r="AB10">
+      <c r="U10" t="n">
+        <v>14477.08</v>
+      </c>
+      <c r="V10" t="n">
         <v>13116.25</v>
       </c>
-      <c r="AC10">
+      <c r="W10" t="n">
         <v>12330.19</v>
       </c>
-      <c r="AD10">
+      <c r="X10" t="n">
         <v>83402.70000000001</v>
       </c>
-      <c r="AE10">
+      <c r="Y10" t="n">
         <v>204749.4</v>
       </c>
-      <c r="AF10">
+      <c r="Z10" t="n">
         <v>102439.8</v>
       </c>
-      <c r="AG10">
+      <c r="AA10" t="n">
         <v>456414.8</v>
       </c>
-      <c r="AH10">
+      <c r="AB10" t="n">
         <v>558854.6000000001</v>
       </c>
-      <c r="AI10">
+      <c r="AC10" t="n">
         <v>70278.3</v>
       </c>
-      <c r="AJ10">
+      <c r="AD10" t="n">
         <v>-17711.3</v>
       </c>
-      <c r="AK10">
+      <c r="AE10" t="n">
         <v>107.5966666666667</v>
       </c>
-      <c r="AL10">
+      <c r="AF10" t="n">
         <v>105.08</v>
       </c>
-      <c r="AM10">
+      <c r="AG10" t="n">
         <v>105.9266666666667</v>
       </c>
-      <c r="AN10">
+      <c r="AH10" t="n">
         <v>109.3533333333333</v>
       </c>
-      <c r="AO10">
+      <c r="AI10" t="n">
         <v>99.58666666666666</v>
       </c>
-      <c r="AP10">
+      <c r="AJ10" t="n">
         <v>106.3366666666667</v>
       </c>
-      <c r="AQ10">
+      <c r="AK10" t="n">
         <v>7.635624777777779</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
-      <c r="A11" s="2">
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>42185</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>98920.10000000001</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>2.506666666666666</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>68956.38</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>3747257.26</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>4525.959999999999</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>13034.92</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>27618.04</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>220286.69</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>142406.93</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>3866226.53</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>19544.99</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>28140.58</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="n">
         <v>35936.76</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="n">
         <v>1703842.16</v>
       </c>
-      <c r="P11">
+      <c r="P11" t="n">
         <v>277195.78</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="n">
         <v>22466.56</v>
       </c>
-      <c r="R11">
-        <v>22226.56</v>
-      </c>
-      <c r="S11">
-        <v>240</v>
-      </c>
-      <c r="T11">
-        <v>186453.66</v>
-      </c>
-      <c r="U11">
-        <v>18478.72</v>
-      </c>
-      <c r="V11">
+      <c r="R11" t="n">
         <v>49616.66</v>
       </c>
-      <c r="W11">
+      <c r="S11" t="n">
         <v>833.6</v>
       </c>
-      <c r="X11">
+      <c r="T11" t="n">
         <v>1484.98</v>
       </c>
-      <c r="Y11">
-        <v>2318.58</v>
-      </c>
-      <c r="Z11">
-        <v>25.27</v>
-      </c>
-      <c r="AA11">
-        <v>788.11</v>
-      </c>
-      <c r="AB11">
+      <c r="U11" t="n">
+        <v>15297.57</v>
+      </c>
+      <c r="V11" t="n">
         <v>12979</v>
       </c>
-      <c r="AC11">
+      <c r="W11" t="n">
         <v>12164.37</v>
       </c>
-      <c r="AD11">
+      <c r="X11" t="n">
         <v>88017.89999999999</v>
       </c>
-      <c r="AE11">
+      <c r="Y11" t="n">
         <v>209906.9</v>
       </c>
-      <c r="AF11">
+      <c r="Z11" t="n">
         <v>108026.7</v>
       </c>
-      <c r="AG11">
+      <c r="AA11" t="n">
         <v>466936.1</v>
       </c>
-      <c r="AH11">
+      <c r="AB11" t="n">
         <v>574962.5</v>
       </c>
-      <c r="AI11">
+      <c r="AC11" t="n">
         <v>73663.8</v>
       </c>
-      <c r="AJ11">
+      <c r="AD11" t="n">
         <v>-20872.5</v>
       </c>
-      <c r="AK11">
+      <c r="AE11" t="n">
         <v>100.1133333333333</v>
       </c>
-      <c r="AL11">
+      <c r="AF11" t="n">
         <v>104.19</v>
       </c>
-      <c r="AM11">
+      <c r="AG11" t="n">
         <v>106.7966666666667</v>
       </c>
-      <c r="AN11">
+      <c r="AH11" t="n">
         <v>109.1933333333333</v>
       </c>
-      <c r="AO11">
+      <c r="AI11" t="n">
         <v>102.4533333333333</v>
       </c>
-      <c r="AP11">
+      <c r="AJ11" t="n">
         <v>107.9433333333333</v>
       </c>
-      <c r="AQ11">
+      <c r="AK11" t="n">
         <v>7.676153846153845</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
-      <c r="A12" s="2">
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>42277</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>101467.1</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>2.053333333333333</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>110520.87</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>4109168.37</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>7583.21</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>19066.24</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>18379.74</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>164155.78</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>17051.83</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>4485003.08</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>26629.62</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="n">
         <v>23900.24</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="n">
         <v>36545.61</v>
       </c>
-      <c r="O12">
+      <c r="O12" t="n">
         <v>1784394.58</v>
       </c>
-      <c r="P12">
+      <c r="P12" t="n">
         <v>199047.51</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="n">
         <v>22285.14</v>
       </c>
-      <c r="R12">
-        <v>22054.14</v>
-      </c>
-      <c r="S12">
-        <v>231</v>
-      </c>
-      <c r="T12">
-        <v>183989.33</v>
-      </c>
-      <c r="U12">
-        <v>18897.61</v>
-      </c>
-      <c r="V12">
+      <c r="R12" t="n">
         <v>48131.04</v>
       </c>
-      <c r="W12">
+      <c r="S12" t="n">
         <v>-646.13</v>
       </c>
-      <c r="X12">
+      <c r="T12" t="n">
         <v>2184.91</v>
       </c>
-      <c r="Y12">
-        <v>1538.77</v>
-      </c>
-      <c r="Z12">
-        <v>22.13</v>
-      </c>
-      <c r="AA12">
-        <v>662.8000000000001</v>
-      </c>
-      <c r="AB12">
+      <c r="U12" t="n">
+        <v>14972.04</v>
+      </c>
+      <c r="V12" t="n">
         <v>13433.27</v>
       </c>
-      <c r="AC12">
+      <c r="W12" t="n">
         <v>12746.59</v>
       </c>
-      <c r="AD12">
+      <c r="X12" t="n">
         <v>87694.60000000001</v>
       </c>
-      <c r="AE12">
+      <c r="Y12" t="n">
         <v>210119.2</v>
       </c>
-      <c r="AF12">
+      <c r="Z12" t="n">
         <v>106944.2</v>
       </c>
-      <c r="AG12">
+      <c r="AA12" t="n">
         <v>474864.9999999999</v>
       </c>
-      <c r="AH12">
+      <c r="AB12" t="n">
         <v>581809.2</v>
       </c>
-      <c r="AI12">
+      <c r="AC12" t="n">
         <v>74195</v>
       </c>
-      <c r="AJ12">
+      <c r="AD12" t="n">
         <v>-13696.5</v>
       </c>
-      <c r="AK12">
+      <c r="AE12" t="n">
         <v>99.27666666666666</v>
       </c>
-      <c r="AL12">
+      <c r="AF12" t="n">
         <v>104.89</v>
       </c>
-      <c r="AM12">
+      <c r="AG12" t="n">
         <v>108.2733333333333</v>
       </c>
-      <c r="AN12">
+      <c r="AH12" t="n">
         <v>111.7833333333333</v>
       </c>
-      <c r="AO12">
+      <c r="AI12" t="n">
         <v>109.59</v>
       </c>
-      <c r="AP12">
+      <c r="AJ12" t="n">
         <v>109.0566666666667</v>
       </c>
-      <c r="AQ12">
+      <c r="AK12" t="n">
         <v>7.662259130434784</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
-      <c r="A13" s="2">
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>42369</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>104347.14</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>2.603333333333333</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>69107.42000000001</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>4058285.569999999</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>6243.64</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>21669.4</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>17123.2</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>111520.78</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>143867.19</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>5043842.060000001</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>14220.83</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <v>29032.72</v>
       </c>
-      <c r="N13">
+      <c r="N13" t="n">
         <v>38020.24</v>
       </c>
-      <c r="O13">
+      <c r="O13" t="n">
         <v>1842170.92</v>
       </c>
-      <c r="P13">
+      <c r="P13" t="n">
         <v>193367.78</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" t="n">
         <v>22267.3</v>
       </c>
-      <c r="R13">
-        <v>22041.58</v>
-      </c>
-      <c r="S13">
-        <v>225.72</v>
-      </c>
-      <c r="T13">
-        <v>184211.08</v>
-      </c>
-      <c r="U13">
-        <v>19352.71</v>
-      </c>
-      <c r="V13">
+      <c r="R13" t="n">
         <v>48131.04</v>
       </c>
-      <c r="W13">
+      <c r="S13" t="n">
         <v>712.4399999999999</v>
       </c>
-      <c r="X13">
+      <c r="T13" t="n">
         <v>1076.89</v>
       </c>
-      <c r="Y13">
-        <v>1789.33</v>
-      </c>
-      <c r="Z13">
-        <v>41.47</v>
-      </c>
-      <c r="AA13">
-        <v>802.8299999999999</v>
-      </c>
-      <c r="AB13">
+      <c r="U13" t="n">
+        <v>15144.51</v>
+      </c>
+      <c r="V13" t="n">
         <v>13355.17</v>
       </c>
-      <c r="AC13">
+      <c r="W13" t="n">
         <v>12489.55</v>
       </c>
-      <c r="AD13">
+      <c r="X13" t="n">
         <v>92150.39999999999</v>
       </c>
-      <c r="AE13">
+      <c r="Y13" t="n">
         <v>214617.6</v>
       </c>
-      <c r="AF13">
+      <c r="Z13" t="n">
         <v>105793.2</v>
       </c>
-      <c r="AG13">
+      <c r="AA13" t="n">
         <v>484269.3</v>
       </c>
-      <c r="AH13">
+      <c r="AB13" t="n">
         <v>590062.6</v>
       </c>
-      <c r="AI13">
+      <c r="AC13" t="n">
         <v>76402.20000000001</v>
       </c>
-      <c r="AJ13">
+      <c r="AD13" t="n">
         <v>-12922</v>
       </c>
-      <c r="AK13">
+      <c r="AE13" t="n">
         <v>121.4366666666667</v>
       </c>
-      <c r="AL13">
+      <c r="AF13" t="n">
         <v>122.4033333333333</v>
       </c>
-      <c r="AM13">
+      <c r="AG13" t="n">
         <v>119.3666666666667</v>
       </c>
-      <c r="AN13">
+      <c r="AH13" t="n">
         <v>111.4433333333333</v>
       </c>
-      <c r="AO13">
+      <c r="AI13" t="n">
         <v>117.0333333333333</v>
       </c>
-      <c r="AP13">
+      <c r="AJ13" t="n">
         <v>108.58</v>
       </c>
-      <c r="AQ13">
+      <c r="AK13" t="n">
         <v>7.64832739130435</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
-      <c r="A14" s="2">
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>42460</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>102827.45</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>4.303333333333333</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>185687.17</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>4011230.399999999</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>7050.389999999999</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>30386.58</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>17811.32</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>219336.43</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>4395.68</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>4251350.89</v>
       </c>
-      <c r="L14">
+      <c r="L14" t="n">
         <v>29450.43</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="n">
         <v>20399.87</v>
       </c>
-      <c r="N14">
+      <c r="N14" t="n">
         <v>46697.59</v>
       </c>
-      <c r="O14">
+      <c r="O14" t="n">
         <v>1791265.45</v>
       </c>
-      <c r="P14">
+      <c r="P14" t="n">
         <v>327234.6</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" t="n">
         <v>22288.6</v>
       </c>
-      <c r="R14">
-        <v>22070.64</v>
-      </c>
-      <c r="S14">
-        <v>217.95</v>
-      </c>
-      <c r="T14">
-        <v>190678.91</v>
-      </c>
-      <c r="U14">
-        <v>17962.79</v>
-      </c>
-      <c r="V14">
+      <c r="R14" t="n">
         <v>48131.04</v>
       </c>
-      <c r="W14">
+      <c r="S14" t="n">
         <v>-712.71</v>
       </c>
-      <c r="X14">
+      <c r="T14" t="n">
         <v>440.0700000000001</v>
       </c>
-      <c r="Y14">
-        <v>-272.6300000000001</v>
-      </c>
-      <c r="Z14">
-        <v>13.92</v>
-      </c>
-      <c r="AA14">
-        <v>927.0799999999999</v>
-      </c>
-      <c r="AB14">
+      <c r="U14" t="n">
+        <v>13185.68</v>
+      </c>
+      <c r="V14" t="n">
         <v>13458.32</v>
       </c>
-      <c r="AC14">
+      <c r="W14" t="n">
         <v>12516.27</v>
       </c>
-      <c r="AD14">
+      <c r="X14" t="n">
         <v>92199</v>
       </c>
-      <c r="AE14">
+      <c r="Y14" t="n">
         <v>220530.5</v>
       </c>
-      <c r="AF14">
+      <c r="Z14" t="n">
         <v>109675.5</v>
       </c>
-      <c r="AG14">
+      <c r="AA14" t="n">
         <v>494692.8</v>
       </c>
-      <c r="AH14">
+      <c r="AB14" t="n">
         <v>604368.3</v>
       </c>
-      <c r="AI14">
+      <c r="AC14" t="n">
         <v>77432.79999999999</v>
       </c>
-      <c r="AJ14">
+      <c r="AD14" t="n">
         <v>-13845.6</v>
       </c>
-      <c r="AK14">
+      <c r="AE14" t="n">
         <v>107.6033333333333</v>
       </c>
-      <c r="AL14">
+      <c r="AF14" t="n">
         <v>101.6333333333333</v>
       </c>
-      <c r="AM14">
+      <c r="AG14" t="n">
         <v>106.88</v>
       </c>
-      <c r="AN14">
+      <c r="AH14" t="n">
         <v>113.62</v>
       </c>
-      <c r="AO14">
+      <c r="AI14" t="n">
         <v>106.4766666666667</v>
       </c>
-      <c r="AP14">
+      <c r="AJ14" t="n">
         <v>109.0466666666667</v>
       </c>
-      <c r="AQ14">
+      <c r="AK14" t="n">
         <v>7.676235934065935</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
-      <c r="A15" s="2">
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>42551</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>105141.61</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>4.293333333333333</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>65235.09</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>4054092.18</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>7138.199999999999</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>30388.12</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>26870.41</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>218581.24</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>704504.73</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>4048965.810000001</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="n">
         <v>28211.72</v>
       </c>
-      <c r="M15">
+      <c r="M15" t="n">
         <v>18752.05</v>
       </c>
-      <c r="N15">
+      <c r="N15" t="n">
         <v>43676.32</v>
       </c>
-      <c r="O15">
+      <c r="O15" t="n">
         <v>1985805.08</v>
       </c>
-      <c r="P15">
+      <c r="P15" t="n">
         <v>254104.43</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" t="n">
         <v>23535.05</v>
       </c>
-      <c r="R15">
-        <v>23318.45</v>
-      </c>
-      <c r="S15">
-        <v>216.6</v>
-      </c>
-      <c r="T15">
-        <v>190952.61</v>
-      </c>
-      <c r="U15">
-        <v>19254.42</v>
-      </c>
-      <c r="V15">
+      <c r="R15" t="n">
         <v>48181.04</v>
       </c>
-      <c r="W15">
+      <c r="S15" t="n">
         <v>5005.69</v>
       </c>
-      <c r="X15">
+      <c r="T15" t="n">
         <v>-5249.44</v>
       </c>
-      <c r="Y15">
-        <v>-243.75</v>
-      </c>
-      <c r="Z15">
-        <v>16.64</v>
-      </c>
-      <c r="AA15">
-        <v>782.96</v>
-      </c>
-      <c r="AB15">
+      <c r="U15" t="n">
+        <v>14153.4</v>
+      </c>
+      <c r="V15" t="n">
         <v>14397.14</v>
       </c>
-      <c r="AC15">
+      <c r="W15" t="n">
         <v>13596.24</v>
       </c>
-      <c r="AD15">
+      <c r="X15" t="n">
         <v>92185.10000000001</v>
       </c>
-      <c r="AE15">
+      <c r="Y15" t="n">
         <v>220604.9</v>
       </c>
-      <c r="AF15">
+      <c r="Z15" t="n">
         <v>111330.1</v>
       </c>
-      <c r="AG15">
+      <c r="AA15" t="n">
         <v>499837.2</v>
       </c>
-      <c r="AH15">
+      <c r="AB15" t="n">
         <v>611167.3</v>
       </c>
-      <c r="AI15">
+      <c r="AC15" t="n">
         <v>77830.89999999999</v>
       </c>
-      <c r="AJ15">
+      <c r="AD15" t="n">
         <v>-25136.3</v>
       </c>
-      <c r="AK15">
+      <c r="AE15" t="n">
         <v>108.4566666666667</v>
       </c>
-      <c r="AL15">
+      <c r="AF15" t="n">
         <v>105.4933333333333</v>
       </c>
-      <c r="AM15">
+      <c r="AG15" t="n">
         <v>111.5333333333333</v>
       </c>
-      <c r="AN15">
+      <c r="AH15" t="n">
         <v>113.2</v>
       </c>
-      <c r="AO15">
+      <c r="AI15" t="n">
         <v>110.3933333333333</v>
       </c>
-      <c r="AP15">
+      <c r="AJ15" t="n">
         <v>109.36</v>
       </c>
-      <c r="AQ15">
+      <c r="AK15" t="n">
         <v>7.676094835164834</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
-      <c r="A16" s="2">
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>42643</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>106775.98</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>4.64</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>108227.97</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>3239173.560000001</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>5226.1</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>24194.77</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>19921.79</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>181799.51</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>73386.78999999999</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>3781192.27</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="n">
         <v>28992.91</v>
       </c>
-      <c r="M16">
+      <c r="M16" t="n">
         <v>39143.87</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="n">
         <v>43190.69</v>
       </c>
-      <c r="O16">
+      <c r="O16" t="n">
         <v>1907306.6</v>
       </c>
-      <c r="P16">
+      <c r="P16" t="n">
         <v>188460.91</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" t="n">
         <v>24025.32</v>
       </c>
-      <c r="R16">
-        <v>23815.24</v>
-      </c>
-      <c r="S16">
-        <v>210.08</v>
-      </c>
-      <c r="T16">
-        <v>192168.51</v>
-      </c>
-      <c r="U16">
-        <v>20937.27</v>
-      </c>
-      <c r="V16">
+      <c r="R16" t="n">
         <v>48281.04</v>
       </c>
-      <c r="W16">
+      <c r="S16" t="n">
         <v>-534.6500000000001</v>
       </c>
-      <c r="X16">
+      <c r="T16" t="n">
         <v>2226.84</v>
       </c>
-      <c r="Y16">
-        <v>1692.18</v>
-      </c>
-      <c r="Z16">
-        <v>10.85</v>
-      </c>
-      <c r="AA16">
-        <v>723.86</v>
-      </c>
-      <c r="AB16">
+      <c r="U16" t="n">
+        <v>16498.8</v>
+      </c>
+      <c r="V16" t="n">
         <v>14806.62</v>
       </c>
-      <c r="AC16">
+      <c r="W16" t="n">
         <v>14071.11</v>
       </c>
-      <c r="AD16">
+      <c r="X16" t="n">
         <v>93691.89999999999</v>
       </c>
-      <c r="AE16">
+      <c r="Y16" t="n">
         <v>218902.8</v>
       </c>
-      <c r="AF16">
+      <c r="Z16" t="n">
         <v>109111.4</v>
       </c>
-      <c r="AG16">
+      <c r="AA16" t="n">
         <v>505739</v>
       </c>
-      <c r="AH16">
+      <c r="AB16" t="n">
         <v>614850.4</v>
       </c>
-      <c r="AI16">
+      <c r="AC16" t="n">
         <v>79324.20000000001</v>
       </c>
-      <c r="AJ16">
+      <c r="AD16" t="n">
         <v>-26044.3</v>
       </c>
-      <c r="AK16">
+      <c r="AE16" t="n">
         <v>110.3866666666667</v>
       </c>
-      <c r="AL16">
+      <c r="AF16" t="n">
         <v>107.95</v>
       </c>
-      <c r="AM16">
+      <c r="AG16" t="n">
         <v>110.7</v>
       </c>
-      <c r="AN16">
+      <c r="AH16" t="n">
         <v>112.2566666666667</v>
       </c>
-      <c r="AO16">
+      <c r="AI16" t="n">
         <v>110.5433333333333</v>
       </c>
-      <c r="AP16">
+      <c r="AJ16" t="n">
         <v>109.84</v>
       </c>
-      <c r="AQ16">
+      <c r="AK16" t="n">
         <v>7.555199456521738</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
-      <c r="A17" s="2">
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>42735</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>109768.87</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>4.553333333333334</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>71349.72</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>4347433.41</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>5545.17</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>33579.83</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>18256.52</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>91431.17</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>108735.99</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>4635027.79</v>
       </c>
-      <c r="L17">
+      <c r="L17" t="n">
         <v>30175.66</v>
       </c>
-      <c r="M17">
+      <c r="M17" t="n">
         <v>28394.29</v>
       </c>
-      <c r="N17">
+      <c r="N17" t="n">
         <v>48206.31</v>
       </c>
-      <c r="O17">
+      <c r="O17" t="n">
         <v>2028474.79</v>
       </c>
-      <c r="P17">
+      <c r="P17" t="n">
         <v>188648.51</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" t="n">
         <v>23992.37</v>
       </c>
-      <c r="R17">
-        <v>23791.27</v>
-      </c>
-      <c r="S17">
-        <v>201.11</v>
-      </c>
-      <c r="T17">
-        <v>195592.66</v>
-      </c>
-      <c r="U17">
-        <v>23243.19</v>
-      </c>
-      <c r="V17">
+      <c r="R17" t="n">
         <v>49481.04</v>
       </c>
-      <c r="W17">
+      <c r="S17" t="n">
         <v>366.38</v>
       </c>
-      <c r="X17">
+      <c r="T17" t="n">
         <v>4030.52</v>
       </c>
-      <c r="Y17">
-        <v>4396.9</v>
-      </c>
-      <c r="Z17">
-        <v>25.49</v>
-      </c>
-      <c r="AA17">
-        <v>893</v>
-      </c>
-      <c r="AB17">
+      <c r="U17" t="n">
+        <v>19242.43</v>
+      </c>
+      <c r="V17" t="n">
         <v>14845.53</v>
       </c>
-      <c r="AC17">
+      <c r="W17" t="n">
         <v>13925.89</v>
       </c>
-      <c r="AD17">
+      <c r="X17" t="n">
         <v>98645.39999999999</v>
       </c>
-      <c r="AE17">
+      <c r="Y17" t="n">
         <v>227019.7</v>
       </c>
-      <c r="AF17">
+      <c r="Z17" t="n">
         <v>110575.1</v>
       </c>
-      <c r="AG17">
+      <c r="AA17" t="n">
         <v>518339.4</v>
       </c>
-      <c r="AH17">
+      <c r="AB17" t="n">
         <v>628914.3</v>
       </c>
-      <c r="AI17">
+      <c r="AC17" t="n">
         <v>83048.89999999999</v>
       </c>
-      <c r="AJ17">
+      <c r="AD17" t="n">
         <v>-23772.4</v>
       </c>
-      <c r="AK17">
+      <c r="AE17" t="n">
         <v>118.47</v>
       </c>
-      <c r="AL17">
+      <c r="AF17" t="n">
         <v>120.2066666666667</v>
       </c>
-      <c r="AM17">
+      <c r="AG17" t="n">
         <v>120.64</v>
       </c>
-      <c r="AN17">
+      <c r="AH17" t="n">
         <v>117.1166666666667</v>
       </c>
-      <c r="AO17">
+      <c r="AI17" t="n">
         <v>120.6033333333333</v>
       </c>
-      <c r="AP17">
+      <c r="AJ17" t="n">
         <v>111.7766666666667</v>
       </c>
-      <c r="AQ17">
+      <c r="AK17" t="n">
         <v>7.502324021739128</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
-      <c r="A18" s="2">
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>42825</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>108265.29</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>3.93</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>118361.08</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>4718039.52</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>4116.84</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>45044.52</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>20650.92</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>213229.17</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>4220.110000000001</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>4614721.88</v>
       </c>
-      <c r="L18">
+      <c r="L18" t="n">
         <v>31094.7</v>
       </c>
-      <c r="M18">
+      <c r="M18" t="n">
         <v>44314.1</v>
       </c>
-      <c r="N18">
+      <c r="N18" t="n">
         <v>60995.22</v>
       </c>
-      <c r="O18">
+      <c r="O18" t="n">
         <v>2085320.97</v>
       </c>
-      <c r="P18">
+      <c r="P18" t="n">
         <v>317010.12</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" t="n">
         <v>23835.15</v>
       </c>
-      <c r="R18">
-        <v>23641.57</v>
-      </c>
-      <c r="S18">
-        <v>193.58</v>
-      </c>
-      <c r="T18">
-        <v>201281.82</v>
-      </c>
-      <c r="U18">
-        <v>23980.12</v>
-      </c>
-      <c r="V18">
+      <c r="R18" t="n">
         <v>49781.04</v>
       </c>
-      <c r="W18">
+      <c r="S18" t="n">
         <v>-860.83</v>
       </c>
-      <c r="X18">
+      <c r="T18" t="n">
         <v>-258.7300000000001</v>
       </c>
-      <c r="Y18">
-        <v>-1119.55</v>
-      </c>
-      <c r="Z18">
-        <v>19.72</v>
-      </c>
-      <c r="AA18">
-        <v>856.92</v>
-      </c>
-      <c r="AB18">
+      <c r="U18" t="n">
+        <v>13535.39</v>
+      </c>
+      <c r="V18" t="n">
         <v>14654.94</v>
       </c>
-      <c r="AC18">
+      <c r="W18" t="n">
         <v>13777.5</v>
       </c>
-      <c r="AD18">
+      <c r="X18" t="n">
         <v>103333.3</v>
       </c>
-      <c r="AE18">
+      <c r="Y18" t="n">
         <v>230310.8</v>
       </c>
-      <c r="AF18">
+      <c r="Z18" t="n">
         <v>112444.5</v>
       </c>
-      <c r="AG18">
+      <c r="AA18" t="n">
         <v>528843.8</v>
       </c>
-      <c r="AH18">
+      <c r="AB18" t="n">
         <v>641288.3</v>
       </c>
-      <c r="AI18">
+      <c r="AC18" t="n">
         <v>89216.89999999999</v>
       </c>
-      <c r="AJ18">
+      <c r="AD18" t="n">
         <v>-24049.2</v>
       </c>
-      <c r="AK18">
+      <c r="AE18" t="n">
         <v>114.24</v>
       </c>
-      <c r="AL18">
+      <c r="AF18" t="n">
         <v>106.52</v>
       </c>
-      <c r="AM18">
+      <c r="AG18" t="n">
         <v>115.5433333333333</v>
       </c>
-      <c r="AN18">
+      <c r="AH18" t="n">
         <v>117.8933333333333</v>
       </c>
-      <c r="AO18">
+      <c r="AI18" t="n">
         <v>113.56</v>
       </c>
-      <c r="AP18">
+      <c r="AJ18" t="n">
         <v>112.9033333333333</v>
       </c>
-      <c r="AQ18">
+      <c r="AK18" t="n">
         <v>7.431564555555556</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
-      <c r="A19" s="2">
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>42916</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>109436.69</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>4.126666666666666</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>74853.64999999999</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>4005513.11</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>5804.92</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>36343.6</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>19912.44</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>228025.42</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>539810.8200000001</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>4354045.140000001</v>
       </c>
-      <c r="L19">
+      <c r="L19" t="n">
         <v>33259.88</v>
       </c>
-      <c r="M19">
+      <c r="M19" t="n">
         <v>30672.95</v>
       </c>
-      <c r="N19">
+      <c r="N19" t="n">
         <v>55746.38</v>
       </c>
-      <c r="O19">
+      <c r="O19" t="n">
         <v>2297927.46</v>
       </c>
-      <c r="P19">
+      <c r="P19" t="n">
         <v>268008.85</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" t="n">
         <v>24074.56</v>
       </c>
-      <c r="R19">
-        <v>23883.25</v>
-      </c>
-      <c r="S19">
-        <v>191.31</v>
-      </c>
-      <c r="T19">
-        <v>207510.32</v>
-      </c>
-      <c r="U19">
-        <v>24343.86</v>
-      </c>
-      <c r="V19">
+      <c r="R19" t="n">
         <v>52038.36</v>
       </c>
-      <c r="W19">
+      <c r="S19" t="n">
         <v>3214.93</v>
       </c>
-      <c r="X19">
+      <c r="T19" t="n">
         <v>-2567.62</v>
       </c>
-      <c r="Y19">
-        <v>647.2900000000001</v>
-      </c>
-      <c r="Z19">
-        <v>6.7</v>
-      </c>
-      <c r="AA19">
-        <v>708.3299999999999</v>
-      </c>
-      <c r="AB19">
+      <c r="U19" t="n">
+        <v>15685.36</v>
+      </c>
+      <c r="V19" t="n">
         <v>15038.06</v>
       </c>
-      <c r="AC19">
+      <c r="W19" t="n">
         <v>14322.09</v>
       </c>
-      <c r="AD19">
+      <c r="X19" t="n">
         <v>106014.8</v>
       </c>
-      <c r="AE19">
+      <c r="Y19" t="n">
         <v>235554.1</v>
       </c>
-      <c r="AF19">
+      <c r="Z19" t="n">
         <v>115085.1</v>
       </c>
-      <c r="AG19">
+      <c r="AA19" t="n">
         <v>541169.7</v>
       </c>
-      <c r="AH19">
+      <c r="AB19" t="n">
         <v>656254.7</v>
       </c>
-      <c r="AI19">
+      <c r="AC19" t="n">
         <v>90815.3</v>
       </c>
-      <c r="AJ19">
+      <c r="AD19" t="n">
         <v>-33183.6</v>
       </c>
-      <c r="AK19">
+      <c r="AE19" t="n">
         <v>111.58</v>
       </c>
-      <c r="AL19">
+      <c r="AF19" t="n">
         <v>108.56</v>
       </c>
-      <c r="AM19">
+      <c r="AG19" t="n">
         <v>114.3866666666667</v>
       </c>
-      <c r="AN19">
+      <c r="AH19" t="n">
         <v>116.8533333333333</v>
       </c>
-      <c r="AO19">
+      <c r="AI19" t="n">
         <v>113.58</v>
       </c>
-      <c r="AP19">
+      <c r="AJ19" t="n">
         <v>113.33</v>
       </c>
-      <c r="AQ19">
+      <c r="AK19" t="n">
         <v>7.340019450549449</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
-      <c r="A20" s="2">
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>43008</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>112095.83</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>4.766666666666667</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>118110.39</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>3615355.25</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>5209.34</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>31273.51</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>34274.08</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>180265.26</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>19762.47</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <v>4136668.8</v>
       </c>
-      <c r="L20">
+      <c r="L20" t="n">
         <v>32218.73</v>
       </c>
-      <c r="M20">
+      <c r="M20" t="n">
         <v>50152.68</v>
       </c>
-      <c r="N20">
+      <c r="N20" t="n">
         <v>67470.7</v>
       </c>
-      <c r="O20">
+      <c r="O20" t="n">
         <v>2244755.73</v>
       </c>
-      <c r="P20">
+      <c r="P20" t="n">
         <v>187854.16</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" t="n">
         <v>24838.8</v>
       </c>
-      <c r="R20">
-        <v>24654.94</v>
-      </c>
-      <c r="S20">
-        <v>183.86</v>
-      </c>
-      <c r="T20">
-        <v>210548.85</v>
-      </c>
-      <c r="U20">
-        <v>27496.18</v>
-      </c>
-      <c r="V20">
+      <c r="R20" t="n">
         <v>53752.5</v>
       </c>
-      <c r="W20">
+      <c r="S20" t="n">
         <v>-746.54</v>
       </c>
-      <c r="X20">
+      <c r="T20" t="n">
         <v>2771.71</v>
       </c>
-      <c r="Y20">
-        <v>2025.16</v>
-      </c>
-      <c r="Z20">
-        <v>25.39</v>
-      </c>
-      <c r="AA20">
-        <v>752.0699999999999</v>
-      </c>
-      <c r="AB20">
+      <c r="U20" t="n">
+        <v>16888.75</v>
+      </c>
+      <c r="V20" t="n">
         <v>14863.6</v>
       </c>
-      <c r="AC20">
+      <c r="W20" t="n">
         <v>14085.14</v>
       </c>
-      <c r="AD20">
+      <c r="X20" t="n">
         <v>106607.1</v>
       </c>
-      <c r="AE20">
+      <c r="Y20" t="n">
         <v>235094.8</v>
       </c>
-      <c r="AF20">
+      <c r="Z20" t="n">
         <v>116590.6</v>
       </c>
-      <c r="AG20">
+      <c r="AA20" t="n">
         <v>548894.1</v>
       </c>
-      <c r="AH20">
+      <c r="AB20" t="n">
         <v>665484.7000000001</v>
       </c>
-      <c r="AI20">
+      <c r="AC20" t="n">
         <v>91484.10000000001</v>
       </c>
-      <c r="AJ20">
+      <c r="AD20" t="n">
         <v>-39875.6</v>
       </c>
-      <c r="AK20">
+      <c r="AE20" t="n">
         <v>118.12</v>
       </c>
-      <c r="AL20">
+      <c r="AF20" t="n">
         <v>117.4933333333333</v>
       </c>
-      <c r="AM20">
+      <c r="AG20" t="n">
         <v>112.3</v>
       </c>
-      <c r="AN20">
+      <c r="AH20" t="n">
         <v>117.09</v>
       </c>
-      <c r="AO20">
+      <c r="AI20" t="n">
         <v>114.8533333333333</v>
       </c>
-      <c r="AP20">
+      <c r="AJ20" t="n">
         <v>113.84</v>
       </c>
-      <c r="AQ20">
+      <c r="AK20" t="n">
         <v>7.294385326086958</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
-      <c r="A21" s="2">
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>43100</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>117261.74</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>4.856666666666666</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>156083.32</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>3470271.34</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>7897.04</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>30939</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>26254.97</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>109311.64</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="n">
         <v>79288.28</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <v>4678512.800000001</v>
       </c>
-      <c r="L21">
+      <c r="L21" t="n">
         <v>38673.73</v>
       </c>
-      <c r="M21">
+      <c r="M21" t="n">
         <v>36276.89</v>
       </c>
-      <c r="N21">
+      <c r="N21" t="n">
         <v>77283.66</v>
       </c>
-      <c r="O21">
+      <c r="O21" t="n">
         <v>2246399.5</v>
       </c>
-      <c r="P21">
+      <c r="P21" t="n">
         <v>196336.52</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" t="n">
         <v>24662.21</v>
       </c>
-      <c r="R21">
-        <v>24480.96</v>
-      </c>
-      <c r="S21">
-        <v>179.48</v>
-      </c>
-      <c r="T21">
-        <v>215197.17</v>
-      </c>
-      <c r="U21">
-        <v>30050.01</v>
-      </c>
-      <c r="V21">
+      <c r="R21" t="n">
         <v>54802.47</v>
       </c>
-      <c r="W21">
+      <c r="S21" t="n">
         <v>-427.85</v>
       </c>
-      <c r="X21">
+      <c r="T21" t="n">
         <v>6162.86</v>
       </c>
-      <c r="Y21">
-        <v>5734.999999999999</v>
-      </c>
-      <c r="Z21">
-        <v>90.39</v>
-      </c>
-      <c r="AA21">
-        <v>839.88</v>
-      </c>
-      <c r="AB21">
+      <c r="U21" t="n">
+        <v>21165.29</v>
+      </c>
+      <c r="V21" t="n">
         <v>15430.3</v>
       </c>
-      <c r="AC21">
+      <c r="W21" t="n">
         <v>14499.34</v>
       </c>
-      <c r="AD21">
+      <c r="X21" t="n">
         <v>111652</v>
       </c>
-      <c r="AE21">
+      <c r="Y21" t="n">
         <v>244883.6</v>
       </c>
-      <c r="AF21">
+      <c r="Z21" t="n">
         <v>115731.8</v>
       </c>
-      <c r="AG21">
+      <c r="AA21" t="n">
         <v>563474.2000000001</v>
       </c>
-      <c r="AH21">
+      <c r="AB21" t="n">
         <v>679206</v>
       </c>
-      <c r="AI21">
+      <c r="AC21" t="n">
         <v>95375.60000000001</v>
       </c>
-      <c r="AJ21">
+      <c r="AD21" t="n">
         <v>-34123.39999999999</v>
       </c>
-      <c r="AK21">
+      <c r="AE21" t="n">
         <v>125.07</v>
       </c>
-      <c r="AL21">
+      <c r="AF21" t="n">
         <v>115.96</v>
       </c>
-      <c r="AM21">
+      <c r="AG21" t="n">
         <v>119.79</v>
       </c>
-      <c r="AN21">
+      <c r="AH21" t="n">
         <v>124.2566666666667</v>
       </c>
-      <c r="AO21">
+      <c r="AI21" t="n">
         <v>128.7166666666667</v>
       </c>
-      <c r="AP21">
+      <c r="AJ21" t="n">
         <v>114.18</v>
       </c>
-      <c r="AQ21">
+      <c r="AK21" t="n">
         <v>7.339096956521741</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
-      <c r="A22" s="2">
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>43190</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>113161.65</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>4.333333333333333</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>97864.48000000001</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>4035329.51</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>5794.45</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>38561.50999999999</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>18581.94</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="n">
         <v>220062.43</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="n">
         <v>23612.6</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="n">
         <v>3703669.55</v>
       </c>
-      <c r="L22">
+      <c r="L22" t="n">
         <v>52077.03</v>
       </c>
-      <c r="M22">
+      <c r="M22" t="n">
         <v>20147.82</v>
       </c>
-      <c r="N22">
+      <c r="N22" t="n">
         <v>87768.75999999999</v>
       </c>
-      <c r="O22">
+      <c r="O22" t="n">
         <v>2163581.32</v>
       </c>
-      <c r="P22">
+      <c r="P22" t="n">
         <v>316212.14</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" t="n">
         <v>24462.44</v>
       </c>
-      <c r="R22">
-        <v>24288.67</v>
-      </c>
-      <c r="S22">
-        <v>173.77</v>
-      </c>
-      <c r="T22">
-        <v>221757.59</v>
-      </c>
-      <c r="U22">
-        <v>33580.21</v>
-      </c>
-      <c r="V22">
+      <c r="R22" t="n">
         <v>55721.03</v>
       </c>
-      <c r="W22">
+      <c r="S22" t="n">
         <v>-515.1900000000001</v>
       </c>
-      <c r="X22">
+      <c r="T22" t="n">
         <v>-738.42</v>
       </c>
-      <c r="Y22">
-        <v>-1253.6</v>
-      </c>
-      <c r="Z22">
-        <v>28.79</v>
-      </c>
-      <c r="AA22">
-        <v>859.26</v>
-      </c>
-      <c r="AB22">
+      <c r="U22" t="n">
+        <v>13963.77</v>
+      </c>
+      <c r="V22" t="n">
         <v>15217.56</v>
       </c>
-      <c r="AC22">
+      <c r="W22" t="n">
         <v>14328.85</v>
       </c>
-      <c r="AD22">
+      <c r="X22" t="n">
         <v>114408.1</v>
       </c>
-      <c r="AE22">
+      <c r="Y22" t="n">
         <v>249800.5</v>
       </c>
-      <c r="AF22">
+      <c r="Z22" t="n">
         <v>118130.3</v>
       </c>
-      <c r="AG22">
+      <c r="AA22" t="n">
         <v>574361.5</v>
       </c>
-      <c r="AH22">
+      <c r="AB22" t="n">
         <v>692491.8</v>
       </c>
-      <c r="AI22">
+      <c r="AC22" t="n">
         <v>99364.60000000001</v>
       </c>
-      <c r="AJ22">
+      <c r="AD22" t="n">
         <v>-32095.6</v>
       </c>
-      <c r="AK22">
+      <c r="AE22" t="n">
         <v>124.6733333333333</v>
       </c>
-      <c r="AL22">
+      <c r="AF22" t="n">
         <v>105.8066666666667</v>
       </c>
-      <c r="AM22">
+      <c r="AG22" t="n">
         <v>118.1533333333333</v>
       </c>
-      <c r="AN22">
+      <c r="AH22" t="n">
         <v>124.2366666666667</v>
       </c>
-      <c r="AO22">
+      <c r="AI22" t="n">
         <v>116.0666666666667</v>
       </c>
-      <c r="AP22">
+      <c r="AJ22" t="n">
         <v>117.0633333333333</v>
       </c>
-      <c r="AQ22">
+      <c r="AK22" t="n">
         <v>7.365522222222221</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
-      <c r="A23" s="2">
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>43281</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>115969.39</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>73271.31</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>3867914.17</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>4363.610000000001</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>43852.29</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>21811.01</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="n">
         <v>216755.75</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="n">
         <v>48407.59</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <v>4267369.850000001</v>
       </c>
-      <c r="L23">
+      <c r="L23" t="n">
         <v>48858.46000000001</v>
       </c>
-      <c r="M23">
+      <c r="M23" t="n">
         <v>47052.69</v>
       </c>
-      <c r="N23">
+      <c r="N23" t="n">
         <v>95008.79000000001</v>
       </c>
-      <c r="O23">
+      <c r="O23" t="n">
         <v>2540684.44</v>
       </c>
-      <c r="P23">
+      <c r="P23" t="n">
         <v>254321.97</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" t="n">
         <v>24308.76</v>
       </c>
-      <c r="R23">
-        <v>24139.48</v>
-      </c>
-      <c r="S23">
-        <v>169.28</v>
-      </c>
-      <c r="T23">
-        <v>229602.84</v>
-      </c>
-      <c r="U23">
-        <v>37634.32</v>
-      </c>
-      <c r="V23">
+      <c r="R23" t="n">
         <v>56653.38</v>
       </c>
-      <c r="W23">
+      <c r="S23" t="n">
         <v>-172.41</v>
       </c>
-      <c r="X23">
+      <c r="T23" t="n">
         <v>2035.86</v>
       </c>
-      <c r="Y23">
-        <v>1863.46</v>
-      </c>
-      <c r="Z23">
-        <v>48.46</v>
-      </c>
-      <c r="AA23">
-        <v>820.9499999999999</v>
-      </c>
-      <c r="AB23">
+      <c r="U23" t="n">
+        <v>17314.08</v>
+      </c>
+      <c r="V23" t="n">
         <v>15448.36</v>
       </c>
-      <c r="AC23">
+      <c r="W23" t="n">
         <v>14580.52</v>
       </c>
-      <c r="AD23">
+      <c r="X23" t="n">
         <v>114469</v>
       </c>
-      <c r="AE23">
+      <c r="Y23" t="n">
         <v>251251.5</v>
       </c>
-      <c r="AF23">
+      <c r="Z23" t="n">
         <v>124955</v>
       </c>
-      <c r="AG23">
+      <c r="AA23" t="n">
         <v>580546.6000000001</v>
       </c>
-      <c r="AH23">
+      <c r="AB23" t="n">
         <v>705501.6</v>
       </c>
-      <c r="AI23">
+      <c r="AC23" t="n">
         <v>97686.3</v>
       </c>
-      <c r="AJ23">
+      <c r="AD23" t="n">
         <v>-36020.2</v>
       </c>
-      <c r="AK23">
+      <c r="AE23" t="n">
         <v>117.06</v>
       </c>
-      <c r="AL23">
+      <c r="AF23" t="n">
         <v>116.6933333333333</v>
       </c>
-      <c r="AM23">
+      <c r="AG23" t="n">
         <v>118.67</v>
       </c>
-      <c r="AN23">
+      <c r="AH23" t="n">
         <v>124.0966666666667</v>
       </c>
-      <c r="AO23">
+      <c r="AI23" t="n">
         <v>126.5366666666667</v>
       </c>
-      <c r="AP23">
+      <c r="AJ23" t="n">
         <v>119.19</v>
       </c>
-      <c r="AQ23">
+      <c r="AK23" t="n">
         <v>7.442698021978021</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
-      <c r="A24" s="2">
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>43373</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>119179.46</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>3.506666666666666</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>97696.04000000001</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>3354997.2</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>3770.71</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="n">
         <v>53514.17</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>28793.12</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="n">
         <v>173546.11</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="n">
         <v>293682.31</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="n">
         <v>3767910.49</v>
       </c>
-      <c r="L24">
+      <c r="L24" t="n">
         <v>68362.47</v>
       </c>
-      <c r="M24">
+      <c r="M24" t="n">
         <v>38165.09</v>
       </c>
-      <c r="N24">
+      <c r="N24" t="n">
         <v>100089.44</v>
       </c>
-      <c r="O24">
+      <c r="O24" t="n">
         <v>2601941.69</v>
       </c>
-      <c r="P24">
+      <c r="P24" t="n">
         <v>188237.98</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" t="n">
         <v>24643.41</v>
       </c>
-      <c r="R24">
-        <v>24484.62</v>
-      </c>
-      <c r="S24">
-        <v>158.79</v>
-      </c>
-      <c r="T24">
-        <v>238296.93</v>
-      </c>
-      <c r="U24">
-        <v>40179.05</v>
-      </c>
-      <c r="V24">
+      <c r="R24" t="n">
         <v>57863.25</v>
       </c>
-      <c r="W24">
+      <c r="S24" t="n">
         <v>1427.15</v>
       </c>
-      <c r="X24">
+      <c r="T24" t="n">
         <v>1693.4</v>
       </c>
-      <c r="Y24">
-        <v>3120.54</v>
-      </c>
-      <c r="Z24">
-        <v>68.11000000000001</v>
-      </c>
-      <c r="AA24">
-        <v>782.3199999999999</v>
-      </c>
-      <c r="AB24">
+      <c r="U24" t="n">
+        <v>18721.76</v>
+      </c>
+      <c r="V24" t="n">
         <v>15601.19</v>
       </c>
-      <c r="AC24">
+      <c r="W24" t="n">
         <v>14749.65</v>
       </c>
-      <c r="AD24">
+      <c r="X24" t="n">
         <v>115585.5</v>
       </c>
-      <c r="AE24">
+      <c r="Y24" t="n">
         <v>253551.7</v>
       </c>
-      <c r="AF24">
+      <c r="Z24" t="n">
         <v>128571.1</v>
       </c>
-      <c r="AG24">
+      <c r="AA24" t="n">
         <v>590694.9</v>
       </c>
-      <c r="AH24">
+      <c r="AB24" t="n">
         <v>719265.9</v>
       </c>
-      <c r="AI24">
+      <c r="AC24" t="n">
         <v>99746.39999999999</v>
       </c>
-      <c r="AJ24">
+      <c r="AD24" t="n">
         <v>-41328.7</v>
       </c>
-      <c r="AK24">
+      <c r="AE24" t="n">
         <v>116.98</v>
       </c>
-      <c r="AL24">
+      <c r="AF24" t="n">
         <v>123.0333333333333</v>
       </c>
-      <c r="AM24">
+      <c r="AG24" t="n">
         <v>117.0566666666667</v>
       </c>
-      <c r="AN24">
+      <c r="AH24" t="n">
         <v>123.66</v>
       </c>
-      <c r="AO24">
+      <c r="AI24" t="n">
         <v>117.9166666666667</v>
       </c>
-      <c r="AP24">
+      <c r="AJ24" t="n">
         <v>119.0233333333334</v>
       </c>
-      <c r="AQ24">
+      <c r="AK24" t="n">
         <v>7.545414565217391</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
-      <c r="A25" s="2">
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>43465</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>124555.71</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>3.266666666666667</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>89154.5</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>3946533.66</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>6550.09</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="n">
         <v>58456.01</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>23544.88</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="n">
         <v>150925.08</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="n">
         <v>39983.92</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="n">
         <v>4409611.93</v>
       </c>
-      <c r="L25">
+      <c r="L25" t="n">
         <v>69645.67</v>
       </c>
-      <c r="M25">
+      <c r="M25" t="n">
         <v>29250.22</v>
       </c>
-      <c r="N25">
+      <c r="N25" t="n">
         <v>101832.42</v>
       </c>
-      <c r="O25">
+      <c r="O25" t="n">
         <v>2640225.02</v>
       </c>
-      <c r="P25">
+      <c r="P25" t="n">
         <v>226821.22</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" t="n">
         <v>24699.79</v>
       </c>
-      <c r="R25">
-        <v>24545.38</v>
-      </c>
-      <c r="S25">
-        <v>154.41</v>
-      </c>
-      <c r="T25">
-        <v>246307.15</v>
-      </c>
-      <c r="U25">
-        <v>45983.84</v>
-      </c>
-      <c r="V25">
+      <c r="R25" t="n">
         <v>55906.25</v>
       </c>
-      <c r="W25">
+      <c r="S25" t="n">
         <v>-285.26</v>
       </c>
-      <c r="X25">
+      <c r="T25" t="n">
         <v>6923.459999999999</v>
       </c>
-      <c r="Y25">
-        <v>6638.22</v>
-      </c>
-      <c r="Z25">
-        <v>51.35</v>
-      </c>
-      <c r="AA25">
-        <v>844.28</v>
-      </c>
-      <c r="AB25">
+      <c r="U25" t="n">
+        <v>22710.89</v>
+      </c>
+      <c r="V25" t="n">
         <v>16026.69</v>
       </c>
-      <c r="AC25">
+      <c r="W25" t="n">
         <v>15176.59</v>
       </c>
-      <c r="AD25">
+      <c r="X25" t="n">
         <v>124376.5</v>
       </c>
-      <c r="AE25">
+      <c r="Y25" t="n">
         <v>264881.2</v>
       </c>
-      <c r="AF25">
+      <c r="Z25" t="n">
         <v>132425.4</v>
       </c>
-      <c r="AG25">
+      <c r="AA25" t="n">
         <v>606558.2</v>
       </c>
-      <c r="AH25">
+      <c r="AB25" t="n">
         <v>738983.6</v>
       </c>
-      <c r="AI25">
+      <c r="AC25" t="n">
         <v>107385.6</v>
       </c>
-      <c r="AJ25">
+      <c r="AD25" t="n">
         <v>-39514.7</v>
       </c>
-      <c r="AK25">
+      <c r="AE25" t="n">
         <v>124.9</v>
       </c>
-      <c r="AL25">
+      <c r="AF25" t="n">
         <v>126.5466666666667</v>
       </c>
-      <c r="AM25">
+      <c r="AG25" t="n">
         <v>124.91</v>
       </c>
-      <c r="AN25">
+      <c r="AH25" t="n">
         <v>131.09</v>
       </c>
-      <c r="AO25">
+      <c r="AI25" t="n">
         <v>130.26</v>
       </c>
-      <c r="AP25">
+      <c r="AJ25" t="n">
         <v>119.0933333333333</v>
       </c>
-      <c r="AQ25">
+      <c r="AK25" t="n">
         <v>7.718516304347825</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
-      <c r="A26" s="2">
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>43555</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>121527.27</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>4.243333333333333</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>111064.86</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>4136666.649999999</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>5389.09</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="n">
         <v>52520.12</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="n">
         <v>17822.6</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="n">
         <v>221908.98</v>
       </c>
-      <c r="J26">
+      <c r="J26" t="n">
         <v>38784.71</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="n">
         <v>3778503.78</v>
       </c>
-      <c r="L26">
+      <c r="L26" t="n">
         <v>81385.53</v>
       </c>
-      <c r="M26">
+      <c r="M26" t="n">
         <v>28098</v>
       </c>
-      <c r="N26">
+      <c r="N26" t="n">
         <v>96347.97</v>
       </c>
-      <c r="O26">
+      <c r="O26" t="n">
         <v>2367145.14</v>
       </c>
-      <c r="P26">
+      <c r="P26" t="n">
         <v>301090.33</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" t="n">
         <v>24510.06</v>
       </c>
-      <c r="R26">
-        <v>24361.71</v>
-      </c>
-      <c r="S26">
-        <v>148.35</v>
-      </c>
-      <c r="T26">
-        <v>253539.02</v>
-      </c>
-      <c r="U26">
-        <v>47375.39</v>
-      </c>
-      <c r="V26">
+      <c r="R26" t="n">
         <v>56024.99000000001</v>
       </c>
-      <c r="W26">
+      <c r="S26" t="n">
         <v>-730.33</v>
       </c>
-      <c r="X26">
+      <c r="T26" t="n">
         <v>1262.77</v>
       </c>
-      <c r="Y26">
-        <v>532.4400000000001</v>
-      </c>
-      <c r="Z26">
-        <v>5.18</v>
-      </c>
-      <c r="AA26">
-        <v>963.1199999999999</v>
-      </c>
-      <c r="AB26">
+      <c r="U26" t="n">
+        <v>16500.34</v>
+      </c>
+      <c r="V26" t="n">
         <v>15967.89</v>
       </c>
-      <c r="AC26">
+      <c r="W26" t="n">
         <v>14999.08</v>
       </c>
-      <c r="AD26">
+      <c r="X26" t="n">
         <v>126055.3</v>
       </c>
-      <c r="AE26">
+      <c r="Y26" t="n">
         <v>273380.8</v>
       </c>
-      <c r="AF26">
+      <c r="Z26" t="n">
         <v>136280.9</v>
       </c>
-      <c r="AG26">
+      <c r="AA26" t="n">
         <v>620525.4</v>
       </c>
-      <c r="AH26">
+      <c r="AB26" t="n">
         <v>756806.4</v>
       </c>
-      <c r="AI26">
+      <c r="AC26" t="n">
         <v>110022.4</v>
       </c>
-      <c r="AJ26">
+      <c r="AD26" t="n">
         <v>-32346.1</v>
       </c>
-      <c r="AK26">
+      <c r="AE26" t="n">
         <v>123.24</v>
       </c>
-      <c r="AL26">
+      <c r="AF26" t="n">
         <v>114.5333333333333</v>
       </c>
-      <c r="AM26">
+      <c r="AG26" t="n">
         <v>122.2766666666667</v>
       </c>
-      <c r="AN26">
+      <c r="AH26" t="n">
         <v>132.5766666666667</v>
       </c>
-      <c r="AO26">
+      <c r="AI26" t="n">
         <v>126.4033333333333</v>
       </c>
-      <c r="AP26">
+      <c r="AJ26" t="n">
         <v>119.3166666666667</v>
       </c>
-      <c r="AQ26">
+      <c r="AK26" t="n">
         <v>7.718529555555556</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
-      <c r="A27" s="2">
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>43646</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>124206.7</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>4.696666666666666</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>81673.64</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>6221375.63</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
         <v>5994.11</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="n">
         <v>69173.54000000001</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="n">
         <v>23467.88</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="n">
         <v>221053.77</v>
       </c>
-      <c r="J27">
+      <c r="J27" t="n">
         <v>1183601.97</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="n">
         <v>5580377.16</v>
       </c>
-      <c r="L27">
+      <c r="L27" t="n">
         <v>97140.88</v>
       </c>
-      <c r="M27">
+      <c r="M27" t="n">
         <v>28775.25</v>
       </c>
-      <c r="N27">
+      <c r="N27" t="n">
         <v>109873.33</v>
       </c>
-      <c r="O27">
+      <c r="O27" t="n">
         <v>2880076.8</v>
       </c>
-      <c r="P27">
+      <c r="P27" t="n">
         <v>271397.38</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" t="n">
         <v>26593.2</v>
       </c>
-      <c r="R27">
-        <v>26448.17</v>
-      </c>
-      <c r="S27">
-        <v>145.03</v>
-      </c>
-      <c r="T27">
-        <v>261639.53</v>
-      </c>
-      <c r="U27">
-        <v>51651.82000000001</v>
-      </c>
-      <c r="V27">
+      <c r="R27" t="n">
         <v>57528.58</v>
       </c>
-      <c r="W27">
+      <c r="S27" t="n">
         <v>8686.139999999999</v>
       </c>
-      <c r="X27">
+      <c r="T27" t="n">
         <v>-4770.76</v>
       </c>
-      <c r="Y27">
-        <v>3915.38</v>
-      </c>
-      <c r="Z27">
-        <v>6</v>
-      </c>
-      <c r="AA27">
-        <v>951.89</v>
-      </c>
-      <c r="AB27">
+      <c r="U27" t="n">
+        <v>19940.89</v>
+      </c>
+      <c r="V27" t="n">
         <v>16025.51</v>
       </c>
-      <c r="AC27">
+      <c r="W27" t="n">
         <v>15066.09</v>
       </c>
-      <c r="AD27">
+      <c r="X27" t="n">
         <v>129140.9</v>
       </c>
-      <c r="AE27">
+      <c r="Y27" t="n">
         <v>280397</v>
       </c>
-      <c r="AF27">
+      <c r="Z27" t="n">
         <v>136904.1</v>
       </c>
-      <c r="AG27">
+      <c r="AA27" t="n">
         <v>633527.3999999999</v>
       </c>
-      <c r="AH27">
+      <c r="AB27" t="n">
         <v>770431.5</v>
       </c>
-      <c r="AI27">
+      <c r="AC27" t="n">
         <v>111459.2</v>
       </c>
-      <c r="AJ27">
+      <c r="AD27" t="n">
         <v>-40628.7</v>
       </c>
-      <c r="AK27">
+      <c r="AE27" t="n">
         <v>114.26</v>
       </c>
-      <c r="AL27">
+      <c r="AF27" t="n">
         <v>133.0633333333333</v>
       </c>
-      <c r="AM27">
+      <c r="AG27" t="n">
         <v>121.3466666666666</v>
       </c>
-      <c r="AN27">
+      <c r="AH27" t="n">
         <v>134.31</v>
       </c>
-      <c r="AO27">
+      <c r="AI27" t="n">
         <v>126.6166666666667</v>
       </c>
-      <c r="AP27">
+      <c r="AJ27" t="n">
         <v>122.2433333333333</v>
       </c>
-      <c r="AQ27">
+      <c r="AK27" t="n">
         <v>7.672258021978021</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
-      <c r="A28" s="2">
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>43738</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>126417.03</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>3.06</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>114955.16</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>4556997.439999999</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>6918.68</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="n">
         <v>69316.8</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="n">
         <v>27842.87</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="n">
         <v>201266.89</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="n">
         <v>11152.91</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="n">
         <v>4171873.62</v>
       </c>
-      <c r="L28">
+      <c r="L28" t="n">
         <v>118996.59</v>
       </c>
-      <c r="M28">
+      <c r="M28" t="n">
         <v>28962.97</v>
       </c>
-      <c r="N28">
+      <c r="N28" t="n">
         <v>116592.28</v>
       </c>
-      <c r="O28">
+      <c r="O28" t="n">
         <v>2980383.83</v>
       </c>
-      <c r="P28">
+      <c r="P28" t="n">
         <v>170613.27</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" t="n">
         <v>27531.35</v>
       </c>
-      <c r="R28">
-        <v>27393.24</v>
-      </c>
-      <c r="S28">
-        <v>138.11</v>
-      </c>
-      <c r="T28">
-        <v>263299.52</v>
-      </c>
-      <c r="U28">
-        <v>56580.83</v>
-      </c>
-      <c r="V28">
+      <c r="R28" t="n">
         <v>57403.94</v>
       </c>
-      <c r="W28">
+      <c r="S28" t="n">
         <v>-799.2700000000001</v>
       </c>
-      <c r="X28">
+      <c r="T28" t="n">
         <v>4238.559999999999</v>
       </c>
-      <c r="Y28">
-        <v>3439.29</v>
-      </c>
-      <c r="Z28">
-        <v>17.23</v>
-      </c>
-      <c r="AA28">
-        <v>909.77</v>
-      </c>
-      <c r="AB28">
+      <c r="U28" t="n">
+        <v>20137.22</v>
+      </c>
+      <c r="V28" t="n">
         <v>16697.93</v>
       </c>
-      <c r="AC28">
+      <c r="W28" t="n">
         <v>15769.74</v>
       </c>
-      <c r="AD28">
+      <c r="X28" t="n">
         <v>132328.2</v>
       </c>
-      <c r="AE28">
+      <c r="Y28" t="n">
         <v>285145</v>
       </c>
-      <c r="AF28">
+      <c r="Z28" t="n">
         <v>138538.7</v>
       </c>
-      <c r="AG28">
+      <c r="AA28" t="n">
         <v>650157.8</v>
       </c>
-      <c r="AH28">
+      <c r="AB28" t="n">
         <v>788696.5</v>
       </c>
-      <c r="AI28">
+      <c r="AC28" t="n">
         <v>115678.4</v>
       </c>
-      <c r="AJ28">
+      <c r="AD28" t="n">
         <v>-48879.6</v>
       </c>
-      <c r="AK28">
+      <c r="AE28" t="n">
         <v>106.3666666666667</v>
       </c>
-      <c r="AL28">
+      <c r="AF28" t="n">
         <v>134.6166666666667</v>
       </c>
-      <c r="AM28">
+      <c r="AG28" t="n">
         <v>120.93</v>
       </c>
-      <c r="AN28">
+      <c r="AH28" t="n">
         <v>132.61</v>
       </c>
-      <c r="AO28">
+      <c r="AI28" t="n">
         <v>125.1433333333333</v>
       </c>
-      <c r="AP28">
+      <c r="AJ28" t="n">
         <v>123.5633333333333</v>
       </c>
-      <c r="AQ28">
+      <c r="AK28" t="n">
         <v>7.683985000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
-      <c r="A29" s="2">
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>43830</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>131869.59</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>2.833333333333333</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>194638.88</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>4708224.37</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
         <v>8746.49</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="n">
         <v>82696.78</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="n">
         <v>23335.68</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="n">
         <v>197443.22</v>
       </c>
-      <c r="J29">
+      <c r="J29" t="n">
         <v>54852.52</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="n">
         <v>4617967.51</v>
       </c>
-      <c r="L29">
+      <c r="L29" t="n">
         <v>116352.25</v>
       </c>
-      <c r="M29">
+      <c r="M29" t="n">
         <v>36076.65</v>
       </c>
-      <c r="N29">
+      <c r="N29" t="n">
         <v>113363.91</v>
       </c>
-      <c r="O29">
+      <c r="O29" t="n">
         <v>2921270.17</v>
       </c>
-      <c r="P29">
+      <c r="P29" t="n">
         <v>215815.09</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" t="n">
         <v>27344.81</v>
       </c>
-      <c r="R29">
-        <v>27211.45</v>
-      </c>
-      <c r="S29">
-        <v>133.36</v>
-      </c>
-      <c r="T29">
-        <v>261733.69</v>
-      </c>
-      <c r="U29">
-        <v>59133.19</v>
-      </c>
-      <c r="V29">
+      <c r="R29" t="n">
         <v>57186.89999999999</v>
       </c>
-      <c r="W29">
+      <c r="S29" t="n">
         <v>-243.33</v>
       </c>
-      <c r="X29">
+      <c r="T29" t="n">
         <v>5637.73</v>
       </c>
-      <c r="Y29">
-        <v>5394.4</v>
-      </c>
-      <c r="Z29">
-        <v>58.29000000000001</v>
-      </c>
-      <c r="AA29">
-        <v>1046.14</v>
-      </c>
-      <c r="AB29">
+      <c r="U29" t="n">
+        <v>23257.86</v>
+      </c>
+      <c r="V29" t="n">
         <v>17863.47</v>
       </c>
-      <c r="AC29">
+      <c r="W29" t="n">
         <v>16758.7</v>
       </c>
-      <c r="AD29">
+      <c r="X29" t="n">
         <v>143538.4</v>
       </c>
-      <c r="AE29">
+      <c r="Y29" t="n">
         <v>301596.5</v>
       </c>
-      <c r="AF29">
+      <c r="Z29" t="n">
         <v>135733</v>
       </c>
-      <c r="AG29">
+      <c r="AA29" t="n">
         <v>677250.7</v>
       </c>
-      <c r="AH29">
+      <c r="AB29" t="n">
         <v>812983.7000000001</v>
       </c>
-      <c r="AI29">
+      <c r="AC29" t="n">
         <v>124789.3</v>
       </c>
-      <c r="AJ29">
+      <c r="AD29" t="n">
         <v>-33885.7</v>
       </c>
-      <c r="AK29">
+      <c r="AE29" t="n">
         <v>133.7033333333333</v>
       </c>
-      <c r="AL29">
+      <c r="AF29" t="n">
         <v>136.24</v>
       </c>
-      <c r="AM29">
+      <c r="AG29" t="n">
         <v>127.9533333333333</v>
       </c>
-      <c r="AN29">
+      <c r="AH29" t="n">
         <v>141.4</v>
       </c>
-      <c r="AO29">
+      <c r="AI29" t="n">
         <v>138.78</v>
       </c>
-      <c r="AP29">
+      <c r="AJ29" t="n">
         <v>123.0566666666667</v>
       </c>
-      <c r="AQ29">
+      <c r="AK29" t="n">
         <v>7.718795652173914</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
-      <c r="A30" s="2">
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>43921</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>124497.43</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>1.596666666666667</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>112903.03</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>4812389.28</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
         <v>6617.41</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="n">
         <v>69520.85000000001</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="n">
         <v>22454.32</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="n">
         <v>189006.89</v>
       </c>
-      <c r="J30">
+      <c r="J30" t="n">
         <v>10488.67</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="n">
         <v>3391847.8</v>
       </c>
-      <c r="L30">
+      <c r="L30" t="n">
         <v>161550.96</v>
       </c>
-      <c r="M30">
+      <c r="M30" t="n">
         <v>26008.86</v>
       </c>
-      <c r="N30">
+      <c r="N30" t="n">
         <v>106711.11</v>
       </c>
-      <c r="O30">
+      <c r="O30" t="n">
         <v>2537199.66</v>
       </c>
-      <c r="P30">
+      <c r="P30" t="n">
         <v>191157.99</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" t="n">
         <v>27149.65</v>
       </c>
-      <c r="R30">
-        <v>27022.14</v>
-      </c>
-      <c r="S30">
-        <v>127.51</v>
-      </c>
-      <c r="T30">
-        <v>265424.64</v>
-      </c>
-      <c r="U30">
-        <v>61189.53</v>
-      </c>
-      <c r="V30">
+      <c r="R30" t="n">
         <v>55610.45</v>
       </c>
-      <c r="W30">
+      <c r="S30" t="n">
         <v>-779.6899999999999</v>
       </c>
-      <c r="X30">
+      <c r="T30" t="n">
         <v>2163.94</v>
       </c>
-      <c r="Y30">
-        <v>1384.25</v>
-      </c>
-      <c r="Z30">
-        <v>2.84</v>
-      </c>
-      <c r="AA30">
-        <v>1006.4</v>
-      </c>
-      <c r="AB30">
+      <c r="U30" t="n">
+        <v>16895.91</v>
+      </c>
+      <c r="V30" t="n">
         <v>15511.66</v>
       </c>
-      <c r="AC30">
+      <c r="W30" t="n">
         <v>14502.18</v>
       </c>
-      <c r="AD30">
+      <c r="X30" t="n">
         <v>147276.8</v>
       </c>
-      <c r="AE30">
+      <c r="Y30" t="n">
         <v>314021.2</v>
       </c>
-      <c r="AF30">
+      <c r="Z30" t="n">
         <v>145025.5</v>
       </c>
-      <c r="AG30">
+      <c r="AA30" t="n">
         <v>694960.5</v>
       </c>
-      <c r="AH30">
+      <c r="AB30" t="n">
         <v>839986</v>
       </c>
-      <c r="AI30">
+      <c r="AC30" t="n">
         <v>128518</v>
       </c>
-      <c r="AJ30">
+      <c r="AD30" t="n">
         <v>-26833.4</v>
       </c>
-      <c r="AK30">
+      <c r="AE30" t="n">
         <v>126.9033333333333</v>
       </c>
-      <c r="AL30">
+      <c r="AF30" t="n">
         <v>118.3233333333333</v>
       </c>
-      <c r="AM30">
+      <c r="AG30" t="n">
         <v>120.1466666666667</v>
       </c>
-      <c r="AN30">
+      <c r="AH30" t="n">
         <v>135.73</v>
       </c>
-      <c r="AO30">
+      <c r="AI30" t="n">
         <v>128.77</v>
       </c>
-      <c r="AP30">
+      <c r="AJ30" t="n">
         <v>123.86</v>
       </c>
-      <c r="AQ30">
+      <c r="AK30" t="n">
         <v>7.677500219780221</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
-      <c r="A31" s="2">
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>44012</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>113987.8</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>2.023333333333333</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>90162.39000000001</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>3827843.31</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>8585.690000000001</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="n">
         <v>45267.24000000001</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="n">
         <v>18392.03</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="n">
         <v>13265.04</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="n">
         <v>1551933.27</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="n">
         <v>2749794.76</v>
       </c>
-      <c r="L31">
+      <c r="L31" t="n">
         <v>207345.87</v>
       </c>
-      <c r="M31">
+      <c r="M31" t="n">
         <v>26058.47</v>
       </c>
-      <c r="N31">
+      <c r="N31" t="n">
         <v>88428.41</v>
       </c>
-      <c r="O31">
+      <c r="O31" t="n">
         <v>2612645.23</v>
       </c>
-      <c r="P31">
+      <c r="P31" t="n">
         <v>7262.040000000001</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" t="n">
         <v>31388.6</v>
       </c>
-      <c r="R31">
-        <v>31266</v>
-      </c>
-      <c r="S31">
-        <v>122.6</v>
-      </c>
-      <c r="T31">
-        <v>287986.48</v>
-      </c>
-      <c r="U31">
-        <v>61892.11</v>
-      </c>
-      <c r="V31">
+      <c r="R31" t="n">
         <v>66823.11</v>
       </c>
-      <c r="W31">
+      <c r="S31" t="n">
         <v>11145.94</v>
       </c>
-      <c r="X31">
+      <c r="T31" t="n">
         <v>-3148.33</v>
       </c>
-      <c r="Y31">
-        <v>7997.619999999999</v>
-      </c>
-      <c r="Z31">
-        <v>14.36</v>
-      </c>
-      <c r="AA31">
-        <v>874.74</v>
-      </c>
-      <c r="AB31">
+      <c r="U31" t="n">
+        <v>22849.8</v>
+      </c>
+      <c r="V31" t="n">
         <v>14852.19</v>
       </c>
-      <c r="AC31">
+      <c r="W31" t="n">
         <v>13962.89</v>
       </c>
-      <c r="AD31">
+      <c r="X31" t="n">
         <v>160496.6</v>
       </c>
-      <c r="AE31">
+      <c r="Y31" t="n">
         <v>329452.6</v>
       </c>
-      <c r="AF31">
+      <c r="Z31" t="n">
         <v>160624.2</v>
       </c>
-      <c r="AG31">
+      <c r="AA31" t="n">
         <v>716217.5</v>
       </c>
-      <c r="AH31">
+      <c r="AB31" t="n">
         <v>876841.7</v>
       </c>
-      <c r="AI31">
+      <c r="AC31" t="n">
         <v>138702.2</v>
       </c>
-      <c r="AJ31">
+      <c r="AD31" t="n">
         <v>-57761</v>
       </c>
-      <c r="AK31">
+      <c r="AE31" t="n">
         <v>104.9433333333333</v>
       </c>
-      <c r="AL31">
+      <c r="AF31" t="n">
         <v>122.4966666666667</v>
       </c>
-      <c r="AM31">
+      <c r="AG31" t="n">
         <v>84.38333333333333</v>
       </c>
-      <c r="AN31">
+      <c r="AH31" t="n">
         <v>113.0933333333333</v>
       </c>
-      <c r="AO31">
+      <c r="AI31" t="n">
         <v>124.3233333333333</v>
       </c>
-      <c r="AP31">
+      <c r="AJ31" t="n">
         <v>123.2333333333333</v>
       </c>
-      <c r="AQ31">
+      <c r="AK31" t="n">
         <v>7.701110329670329</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
-      <c r="A32" s="2">
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>44104</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>126716.85</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>4.013333333333333</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>110389.3</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>4283273.33</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="n">
         <v>8429.370000000001</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="n">
         <v>43272.89</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="n">
         <v>17941.4</v>
       </c>
-      <c r="I32">
+      <c r="I32" t="n">
         <v>9033.24</v>
       </c>
-      <c r="J32">
+      <c r="J32" t="n">
         <v>2707.5</v>
       </c>
-      <c r="K32">
+      <c r="K32" t="n">
         <v>3268874.44</v>
       </c>
-      <c r="L32">
+      <c r="L32" t="n">
         <v>139281.87</v>
       </c>
-      <c r="M32">
+      <c r="M32" t="n">
         <v>22712.08</v>
       </c>
-      <c r="N32">
+      <c r="N32" t="n">
         <v>88898.03</v>
       </c>
-      <c r="O32">
+      <c r="O32" t="n">
         <v>3311715.1</v>
       </c>
-      <c r="P32">
+      <c r="P32" t="n">
         <v>567.76</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" t="n">
         <v>31158.93</v>
       </c>
-      <c r="R32">
-        <v>31041.86</v>
-      </c>
-      <c r="S32">
-        <v>117.07</v>
-      </c>
-      <c r="T32">
-        <v>319352.55</v>
-      </c>
-      <c r="U32">
-        <v>64190.04000000001</v>
-      </c>
-      <c r="V32">
+      <c r="R32" t="n">
         <v>79251.55</v>
       </c>
-      <c r="W32">
+      <c r="S32" t="n">
         <v>-815.5599999999999</v>
       </c>
-      <c r="X32">
+      <c r="T32" t="n">
         <v>10862.12</v>
       </c>
-      <c r="Y32">
-        <v>10046.56</v>
-      </c>
-      <c r="Z32">
-        <v>11.82</v>
-      </c>
-      <c r="AA32">
-        <v>844.4</v>
-      </c>
-      <c r="AB32">
+      <c r="U32" t="n">
+        <v>25247.17</v>
+      </c>
+      <c r="V32" t="n">
         <v>15200.61</v>
       </c>
-      <c r="AC32">
+      <c r="W32" t="n">
         <v>14344.2</v>
       </c>
-      <c r="AD32">
+      <c r="X32" t="n">
         <v>168721</v>
       </c>
-      <c r="AE32">
+      <c r="Y32" t="n">
         <v>356481.5</v>
       </c>
-      <c r="AF32">
+      <c r="Z32" t="n">
         <v>163010</v>
       </c>
-      <c r="AG32">
+      <c r="AA32" t="n">
         <v>762423.4</v>
       </c>
-      <c r="AH32">
+      <c r="AB32" t="n">
         <v>925433.4</v>
       </c>
-      <c r="AI32">
+      <c r="AC32" t="n">
         <v>149306</v>
       </c>
-      <c r="AJ32">
+      <c r="AD32" t="n">
         <v>-46893.5</v>
       </c>
-      <c r="AK32">
+      <c r="AE32" t="n">
         <v>114.85</v>
       </c>
-      <c r="AL32">
+      <c r="AF32" t="n">
         <v>131.87</v>
       </c>
-      <c r="AM32">
+      <c r="AG32" t="n">
         <v>105.6766666666667</v>
       </c>
-      <c r="AN32">
+      <c r="AH32" t="n">
         <v>125.6266666666667</v>
       </c>
-      <c r="AO32">
+      <c r="AI32" t="n">
         <v>128.6033333333334</v>
       </c>
-      <c r="AP32">
+      <c r="AJ32" t="n">
         <v>123.41</v>
       </c>
-      <c r="AQ32">
+      <c r="AK32" t="n">
         <v>7.719041739130435</v>
       </c>
     </row>
-    <row r="33" spans="1:43">
-      <c r="A33" s="2">
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>44196</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>135785.48</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>5.206666666666667</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>145080.49</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>5128368.41</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="n">
         <v>12226.44</v>
       </c>
-      <c r="G33">
+      <c r="G33" t="n">
         <v>63189.13</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="n">
         <v>23096.94</v>
       </c>
-      <c r="I33">
+      <c r="I33" t="n">
         <v>28730.05</v>
       </c>
-      <c r="J33">
+      <c r="J33" t="n">
         <v>192913.51</v>
       </c>
-      <c r="K33">
+      <c r="K33" t="n">
         <v>3877125.69</v>
       </c>
-      <c r="L33">
+      <c r="L33" t="n">
         <v>120539.97</v>
       </c>
-      <c r="M33">
+      <c r="M33" t="n">
         <v>33556.74</v>
       </c>
-      <c r="N33">
+      <c r="N33" t="n">
         <v>103302.28</v>
       </c>
-      <c r="O33">
+      <c r="O33" t="n">
         <v>3444450.42</v>
       </c>
-      <c r="P33">
+      <c r="P33" t="n">
         <v>14226.75</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" t="n">
         <v>31276.44</v>
       </c>
-      <c r="R33">
-        <v>31162.84</v>
-      </c>
-      <c r="S33">
-        <v>113.59</v>
-      </c>
-      <c r="T33">
-        <v>325019.3</v>
-      </c>
-      <c r="U33">
-        <v>69282.28</v>
-      </c>
-      <c r="V33">
+      <c r="R33" t="n">
         <v>87001.34</v>
       </c>
-      <c r="W33">
+      <c r="S33" t="n">
         <v>786.5999999999999</v>
       </c>
-      <c r="X33">
+      <c r="T33" t="n">
         <v>9248.370000000001</v>
       </c>
-      <c r="Y33">
-        <v>10034.97</v>
-      </c>
-      <c r="Z33">
-        <v>37.65</v>
-      </c>
-      <c r="AA33">
-        <v>991.66</v>
-      </c>
-      <c r="AB33">
+      <c r="U33" t="n">
+        <v>28536.11</v>
+      </c>
+      <c r="V33" t="n">
         <v>18501.14</v>
       </c>
-      <c r="AC33">
+      <c r="W33" t="n">
         <v>17470.14</v>
       </c>
-      <c r="AD33">
+      <c r="X33" t="n">
         <v>179873.1</v>
       </c>
-      <c r="AE33">
+      <c r="Y33" t="n">
         <v>380212.3</v>
       </c>
-      <c r="AF33">
+      <c r="Z33" t="n">
         <v>167841.1</v>
       </c>
-      <c r="AG33">
+      <c r="AA33" t="n">
         <v>802294.7000000001</v>
       </c>
-      <c r="AH33">
+      <c r="AB33" t="n">
         <v>970135.8</v>
       </c>
-      <c r="AI33">
+      <c r="AC33" t="n">
         <v>158714.6</v>
       </c>
-      <c r="AJ33">
+      <c r="AD33" t="n">
         <v>-19425.3</v>
       </c>
-      <c r="AK33">
+      <c r="AE33" t="n">
         <v>138.8566666666667</v>
       </c>
-      <c r="AL33">
+      <c r="AF33" t="n">
         <v>133.4533333333333</v>
       </c>
-      <c r="AM33">
+      <c r="AG33" t="n">
         <v>119.18</v>
       </c>
-      <c r="AN33">
+      <c r="AH33" t="n">
         <v>142.8333333333333</v>
       </c>
-      <c r="AO33">
+      <c r="AI33" t="n">
         <v>143.4066666666667</v>
       </c>
-      <c r="AP33">
+      <c r="AJ33" t="n">
         <v>123.3666666666667</v>
       </c>
-      <c r="AQ33">
+      <c r="AK33" t="n">
         <v>7.790501739130434</v>
       </c>
     </row>
-    <row r="34" spans="1:43">
-      <c r="A34" s="2">
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>44286</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>137035.27</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>5.693333333333332</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>115063.16</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>4754057.88</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="n">
         <v>7568.09</v>
       </c>
-      <c r="G34">
+      <c r="G34" t="n">
         <v>80172.78</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="n">
         <v>10208.54</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="n">
         <v>37715.59</v>
       </c>
-      <c r="J34">
+      <c r="J34" t="n">
         <v>7188.54</v>
       </c>
-      <c r="K34">
+      <c r="K34" t="n">
         <v>3502778.86</v>
       </c>
-      <c r="L34">
+      <c r="L34" t="n">
         <v>111123.67</v>
       </c>
-      <c r="M34">
+      <c r="M34" t="n">
         <v>55133.38</v>
       </c>
-      <c r="N34">
+      <c r="N34" t="n">
         <v>101684.03</v>
       </c>
-      <c r="O34">
+      <c r="O34" t="n">
         <v>3290652.85</v>
       </c>
-      <c r="P34">
+      <c r="P34" t="n">
         <v>43131.62</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" t="n">
         <v>31104.58</v>
       </c>
-      <c r="R34">
-        <v>30998.21</v>
-      </c>
-      <c r="S34">
-        <v>106.38</v>
-      </c>
-      <c r="T34">
-        <v>328261.39</v>
-      </c>
-      <c r="U34">
-        <v>68283.08</v>
-      </c>
-      <c r="V34">
+      <c r="R34" t="n">
         <v>89147.44</v>
       </c>
-      <c r="W34">
+      <c r="S34" t="n">
         <v>-836.8200000000001</v>
       </c>
-      <c r="X34">
+      <c r="T34" t="n">
         <v>-856.2099999999999</v>
       </c>
-      <c r="Y34">
-        <v>-1693.02</v>
-      </c>
-      <c r="Z34">
-        <v>32.81</v>
-      </c>
-      <c r="AA34">
-        <v>979.71</v>
-      </c>
-      <c r="AB34">
+      <c r="U34" t="n">
+        <v>17225.7</v>
+      </c>
+      <c r="V34" t="n">
         <v>18918.71</v>
       </c>
-      <c r="AC34">
+      <c r="W34" t="n">
         <v>17879.83</v>
       </c>
-      <c r="AD34">
+      <c r="X34" t="n">
         <v>185246.5</v>
       </c>
-      <c r="AE34">
+      <c r="Y34" t="n">
         <v>393950.7</v>
       </c>
-      <c r="AF34">
+      <c r="Z34" t="n">
         <v>180122.5</v>
       </c>
-      <c r="AG34">
+      <c r="AA34" t="n">
         <v>823914.8</v>
       </c>
-      <c r="AH34">
+      <c r="AB34" t="n">
         <v>1004037.3</v>
       </c>
-      <c r="AI34">
+      <c r="AC34" t="n">
         <v>164650.9</v>
       </c>
-      <c r="AJ34">
+      <c r="AD34" t="n">
         <v>-11112.6</v>
       </c>
-      <c r="AK34">
+      <c r="AE34" t="n">
         <v>129.4633333333333</v>
       </c>
-      <c r="AL34">
+      <c r="AF34" t="n">
         <v>133.6366666666667</v>
       </c>
-      <c r="AM34">
+      <c r="AG34" t="n">
         <v>116.9033333333333</v>
       </c>
-      <c r="AN34">
+      <c r="AH34" t="n">
         <v>143.8233333333334</v>
       </c>
-      <c r="AO34">
+      <c r="AI34" t="n">
         <v>135.1033333333333</v>
       </c>
-      <c r="AP34">
+      <c r="AJ34" t="n">
         <v>124.0333333333333</v>
       </c>
-      <c r="AQ34">
+      <c r="AK34" t="n">
         <v>7.752138222222222</v>
       </c>
     </row>
-    <row r="35" spans="1:43">
-      <c r="A35" s="2">
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>44377</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>138196.2</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>4.760000000000001</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>93714.52</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>5293762.46</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="n">
         <v>5561</v>
       </c>
-      <c r="G35">
+      <c r="G35" t="n">
         <v>83615.3</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="n">
         <v>8471.57</v>
       </c>
-      <c r="I35">
+      <c r="I35" t="n">
         <v>36926.65</v>
       </c>
-      <c r="J35">
+      <c r="J35" t="n">
         <v>40777.58</v>
       </c>
-      <c r="K35">
+      <c r="K35" t="n">
         <v>3820749.79</v>
       </c>
-      <c r="L35">
+      <c r="L35" t="n">
         <v>101799.02</v>
       </c>
-      <c r="M35">
+      <c r="M35" t="n">
         <v>51593.08</v>
       </c>
-      <c r="N35">
+      <c r="N35" t="n">
         <v>117488.16</v>
       </c>
-      <c r="O35">
+      <c r="O35" t="n">
         <v>4008459.28</v>
       </c>
-      <c r="P35">
+      <c r="P35" t="n">
         <v>50931.59</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" t="n">
         <v>30870.27</v>
       </c>
-      <c r="R35">
-        <v>30767.91</v>
-      </c>
-      <c r="S35">
-        <v>102.36</v>
-      </c>
-      <c r="T35">
-        <v>350625.81</v>
-      </c>
-      <c r="U35">
-        <v>64475.81</v>
-      </c>
-      <c r="V35">
+      <c r="R35" t="n">
         <v>91676.17999999999</v>
       </c>
-      <c r="W35">
+      <c r="S35" t="n">
         <v>-389.2</v>
       </c>
-      <c r="X35">
+      <c r="T35" t="n">
         <v>3839.73</v>
       </c>
-      <c r="Y35">
-        <v>3450.52</v>
-      </c>
-      <c r="Z35">
-        <v>26.72</v>
-      </c>
-      <c r="AA35">
-        <v>1012.54</v>
-      </c>
-      <c r="AB35">
+      <c r="U35" t="n">
+        <v>22674.46</v>
+      </c>
+      <c r="V35" t="n">
         <v>19223.94</v>
       </c>
-      <c r="AC35">
+      <c r="W35" t="n">
         <v>18139.45</v>
       </c>
-      <c r="AD35">
+      <c r="X35" t="n">
         <v>186113.2</v>
       </c>
-      <c r="AE35">
+      <c r="Y35" t="n">
         <v>397100.9</v>
       </c>
-      <c r="AF35">
+      <c r="Z35" t="n">
         <v>191939.8</v>
       </c>
-      <c r="AG35">
+      <c r="AA35" t="n">
         <v>835564.0999999999</v>
       </c>
-      <c r="AH35">
+      <c r="AB35" t="n">
         <v>1027503.9</v>
       </c>
-      <c r="AI35">
+      <c r="AC35" t="n">
         <v>165612.5</v>
       </c>
-      <c r="AJ35">
+      <c r="AD35" t="n">
         <v>-31829.4</v>
       </c>
-      <c r="AK35">
+      <c r="AE35" t="n">
         <v>120.8</v>
       </c>
-      <c r="AL35">
+      <c r="AF35" t="n">
         <v>139.1566666666667</v>
       </c>
-      <c r="AM35">
+      <c r="AG35" t="n">
         <v>110.33</v>
       </c>
-      <c r="AN35">
+      <c r="AH35" t="n">
         <v>138.36</v>
       </c>
-      <c r="AO35">
+      <c r="AI35" t="n">
         <v>135.5033333333334</v>
       </c>
-      <c r="AP35">
+      <c r="AJ35" t="n">
         <v>125.8333333333333</v>
       </c>
-      <c r="AQ35">
+      <c r="AK35" t="n">
         <v>7.723245604395605</v>
       </c>
     </row>
-    <row r="36" spans="1:43">
-      <c r="A36" s="2">
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>44469</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>144978.03</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>3.703333333333333</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>128239.33</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>4125210.59</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
         <v>7721.219999999999</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="n">
         <v>113298.28</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="n">
         <v>8850.92</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="n">
         <v>49036.5</v>
       </c>
-      <c r="J36">
+      <c r="J36" t="n">
         <v>596220.1800000001</v>
       </c>
-      <c r="K36">
+      <c r="K36" t="n">
         <v>3868391.88</v>
       </c>
-      <c r="L36">
+      <c r="L36" t="n">
         <v>81763.19</v>
       </c>
-      <c r="M36">
+      <c r="M36" t="n">
         <v>46168.59</v>
       </c>
-      <c r="N36">
+      <c r="N36" t="n">
         <v>125548.5</v>
       </c>
-      <c r="O36">
+      <c r="O36" t="n">
         <v>4225287.61</v>
       </c>
-      <c r="P36">
+      <c r="P36" t="n">
         <v>54520.37</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" t="n">
         <v>30631.78</v>
       </c>
-      <c r="R36">
-        <v>30536.74</v>
-      </c>
-      <c r="S36">
-        <v>95.03</v>
-      </c>
-      <c r="T36">
-        <v>359084.78</v>
-      </c>
-      <c r="U36">
-        <v>62705.53999999999</v>
-      </c>
-      <c r="V36">
+      <c r="R36" t="n">
         <v>91734.7</v>
       </c>
-      <c r="W36">
+      <c r="S36" t="n">
         <v>-729.0899999999999</v>
       </c>
-      <c r="X36">
+      <c r="T36" t="n">
         <v>2518.25</v>
       </c>
-      <c r="Y36">
-        <v>1789.16</v>
-      </c>
-      <c r="Z36">
-        <v>27.74</v>
-      </c>
-      <c r="AA36">
-        <v>917.05</v>
-      </c>
-      <c r="AB36">
+      <c r="U36" t="n">
+        <v>22270.72</v>
+      </c>
+      <c r="V36" t="n">
         <v>20481.55</v>
       </c>
-      <c r="AC36">
+      <c r="W36" t="n">
         <v>19500.57</v>
       </c>
-      <c r="AD36">
+      <c r="X36" t="n">
         <v>191790.3</v>
       </c>
-      <c r="AE36">
+      <c r="Y36" t="n">
         <v>403730.5000000001</v>
       </c>
-      <c r="AF36">
+      <c r="Z36" t="n">
         <v>193699.2</v>
       </c>
-      <c r="AG36">
+      <c r="AA36" t="n">
         <v>856337.6</v>
       </c>
-      <c r="AH36">
+      <c r="AB36" t="n">
         <v>1050036.8</v>
       </c>
-      <c r="AI36">
+      <c r="AC36" t="n">
         <v>170488.6</v>
       </c>
-      <c r="AJ36">
+      <c r="AD36" t="n">
         <v>-34737.89999999999</v>
       </c>
-      <c r="AK36">
+      <c r="AE36" t="n">
         <v>130.8233333333334</v>
       </c>
-      <c r="AL36">
+      <c r="AF36" t="n">
         <v>142.8166666666667</v>
       </c>
-      <c r="AM36">
+      <c r="AG36" t="n">
         <v>119.9733333333333</v>
       </c>
-      <c r="AN36">
+      <c r="AH36" t="n">
         <v>141.4</v>
       </c>
-      <c r="AO36">
+      <c r="AI36" t="n">
         <v>135.6433333333333</v>
       </c>
-      <c r="AP36">
+      <c r="AJ36" t="n">
         <v>127.2366666666667</v>
       </c>
-      <c r="AQ36">
+      <c r="AK36" t="n">
         <v>7.738517282608695</v>
       </c>
     </row>
-    <row r="37" spans="1:43">
-      <c r="A37" s="2">
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>44561</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>154904.38</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>2.973333333333333</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>89993.48</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>5750490.550000001</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="n">
         <v>7581.27</v>
       </c>
-      <c r="G37">
+      <c r="G37" t="n">
         <v>130094.27</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="n">
         <v>12043.87</v>
       </c>
-      <c r="I37">
+      <c r="I37" t="n">
         <v>79417.63</v>
       </c>
-      <c r="J37">
+      <c r="J37" t="n">
         <v>991931.89</v>
       </c>
-      <c r="K37">
+      <c r="K37" t="n">
         <v>4950716.600000001</v>
       </c>
-      <c r="L37">
+      <c r="L37" t="n">
         <v>75846.94</v>
       </c>
-      <c r="M37">
+      <c r="M37" t="n">
         <v>56417.95</v>
       </c>
-      <c r="N37">
+      <c r="N37" t="n">
         <v>142256.24</v>
       </c>
-      <c r="O37">
+      <c r="O37" t="n">
         <v>4533344.51</v>
       </c>
-      <c r="P37">
+      <c r="P37" t="n">
         <v>96097.64</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" t="n">
         <v>33351.1</v>
       </c>
-      <c r="R37">
-        <v>33260.58</v>
-      </c>
-      <c r="S37">
-        <v>90.53</v>
-      </c>
-      <c r="T37">
-        <v>356845.7</v>
-      </c>
-      <c r="U37">
-        <v>61672.25</v>
-      </c>
-      <c r="V37">
+      <c r="R37" t="n">
         <v>90053.84</v>
       </c>
-      <c r="W37">
+      <c r="S37" t="n">
         <v>7191.04</v>
       </c>
-      <c r="X37">
+      <c r="T37" t="n">
         <v>-2966.889999999999</v>
       </c>
-      <c r="Y37">
-        <v>4224.139999999999</v>
-      </c>
-      <c r="Z37">
-        <v>36.85</v>
-      </c>
-      <c r="AA37">
-        <v>1059.84</v>
-      </c>
-      <c r="AB37">
+      <c r="U37" t="n">
+        <v>27894.91</v>
+      </c>
+      <c r="V37" t="n">
         <v>23670.78</v>
       </c>
-      <c r="AC37">
+      <c r="W37" t="n">
         <v>22499.2</v>
       </c>
-      <c r="AD37">
+      <c r="X37" t="n">
         <v>202630.4</v>
       </c>
-      <c r="AE37">
+      <c r="Y37" t="n">
         <v>422218.2</v>
       </c>
-      <c r="AF37">
+      <c r="Z37" t="n">
         <v>195816.1</v>
       </c>
-      <c r="AG37">
+      <c r="AA37" t="n">
         <v>882988.7999999999</v>
       </c>
-      <c r="AH37">
+      <c r="AB37" t="n">
         <v>1078804.9</v>
       </c>
-      <c r="AI37">
+      <c r="AC37" t="n">
         <v>180156.3</v>
       </c>
-      <c r="AJ37">
+      <c r="AD37" t="n">
         <v>-48974.3</v>
       </c>
-      <c r="AK37">
+      <c r="AE37" t="n">
         <v>132.3466666666667</v>
       </c>
-      <c r="AL37">
+      <c r="AF37" t="n">
         <v>145.0633333333333</v>
       </c>
-      <c r="AM37">
+      <c r="AG37" t="n">
         <v>130.5233333333333</v>
       </c>
-      <c r="AN37">
+      <c r="AH37" t="n">
         <v>153.5333333333333</v>
       </c>
-      <c r="AO37">
+      <c r="AI37" t="n">
         <v>145.52</v>
       </c>
-      <c r="AP37">
+      <c r="AJ37" t="n">
         <v>127.0266666666667</v>
       </c>
-      <c r="AQ37">
+      <c r="AK37" t="n">
         <v>7.729398695652173</v>
       </c>
     </row>
-    <row r="38" spans="1:43">
-      <c r="A38" s="2">
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>154730.28</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>3.34</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>131873.69</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>5196614.93</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="n">
         <v>6229.46</v>
       </c>
-      <c r="G38">
+      <c r="G38" t="n">
         <v>132044.93</v>
       </c>
-      <c r="H38">
+      <c r="H38" t="n">
         <v>9929.700000000001</v>
       </c>
-      <c r="I38">
+      <c r="I38" t="n">
         <v>118393.99</v>
       </c>
-      <c r="J38">
+      <c r="J38" t="n">
         <v>2681.11</v>
       </c>
-      <c r="K38">
+      <c r="K38" t="n">
         <v>4442422.53</v>
       </c>
-      <c r="L38">
+      <c r="L38" t="n">
         <v>91128.98</v>
       </c>
-      <c r="M38">
+      <c r="M38" t="n">
         <v>49241.63</v>
       </c>
-      <c r="N38">
+      <c r="N38" t="n">
         <v>134271.3</v>
       </c>
-      <c r="O38">
+      <c r="O38" t="n">
         <v>4121128.3</v>
       </c>
-      <c r="P38">
+      <c r="P38" t="n">
         <v>97791.51000000001</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" t="n">
         <v>33087.88</v>
       </c>
-      <c r="R38">
-        <v>33004.58</v>
-      </c>
-      <c r="S38">
-        <v>83.3</v>
-      </c>
-      <c r="T38">
-        <v>360330.64</v>
-      </c>
-      <c r="U38">
-        <v>63104.91</v>
-      </c>
-      <c r="V38">
+      <c r="R38" t="n">
         <v>90274.94</v>
       </c>
-      <c r="W38">
+      <c r="S38" t="n">
         <v>-758.0899999999999</v>
       </c>
-      <c r="X38">
+      <c r="T38" t="n">
         <v>-439.18</v>
       </c>
-      <c r="Y38">
-        <v>-1197.27</v>
-      </c>
-      <c r="Z38">
-        <v>0.36</v>
-      </c>
-      <c r="AA38">
-        <v>1147.18</v>
-      </c>
-      <c r="AB38">
+      <c r="U38" t="n">
+        <v>20616.6</v>
+      </c>
+      <c r="V38" t="n">
         <v>21813.87</v>
       </c>
-      <c r="AC38">
+      <c r="W38" t="n">
         <v>20643.01</v>
       </c>
-      <c r="AD38">
+      <c r="X38" t="n">
         <v>210861.1</v>
       </c>
-      <c r="AE38">
+      <c r="Y38" t="n">
         <v>439908.1</v>
       </c>
-      <c r="AF38">
+      <c r="Z38" t="n">
         <v>205273.1</v>
       </c>
-      <c r="AG38">
+      <c r="AA38" t="n">
         <v>919114.3</v>
       </c>
-      <c r="AH38">
+      <c r="AB38" t="n">
         <v>1124387.4</v>
       </c>
-      <c r="AI38">
+      <c r="AC38" t="n">
         <v>188493.9</v>
       </c>
-      <c r="AJ38">
+      <c r="AD38" t="n">
         <v>-45224.7</v>
       </c>
-      <c r="AK38">
+      <c r="AE38" t="n">
         <v>137.8</v>
       </c>
-      <c r="AL38">
+      <c r="AF38" t="n">
         <v>139.1733333333333</v>
       </c>
-      <c r="AM38">
+      <c r="AG38" t="n">
         <v>132.2333333333333</v>
       </c>
-      <c r="AN38">
+      <c r="AH38" t="n">
         <v>145.7166666666667</v>
       </c>
-      <c r="AO38">
+      <c r="AI38" t="n">
         <v>133.63</v>
       </c>
-      <c r="AP38">
+      <c r="AJ38" t="n">
         <v>127.77</v>
       </c>
-      <c r="AQ38">
+      <c r="AK38" t="n">
         <v>7.698706629213483</v>
       </c>
     </row>
-    <row r="39" spans="1:43">
-      <c r="A39" s="2">
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>44742</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>159866.86</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>5.996666666666667</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>794787.21</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>6653804.63</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="n">
         <v>7069.99</v>
       </c>
-      <c r="G39">
+      <c r="G39" t="n">
         <v>128849.03</v>
       </c>
-      <c r="H39">
+      <c r="H39" t="n">
         <v>12364.22</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="n">
         <v>158320.44</v>
       </c>
-      <c r="J39">
+      <c r="J39" t="n">
         <v>45345.62</v>
       </c>
-      <c r="K39">
+      <c r="K39" t="n">
         <v>5131339.319999999</v>
       </c>
-      <c r="L39">
+      <c r="L39" t="n">
         <v>118426.42</v>
       </c>
-      <c r="M39">
+      <c r="M39" t="n">
         <v>58747.93000000001</v>
       </c>
-      <c r="N39">
+      <c r="N39" t="n">
         <v>155815.96</v>
       </c>
-      <c r="O39">
+      <c r="O39" t="n">
         <v>4965694.25</v>
       </c>
-      <c r="P39">
+      <c r="P39" t="n">
         <v>176083.06</v>
       </c>
-      <c r="Q39">
+      <c r="Q39" t="n">
         <v>32094.23</v>
       </c>
-      <c r="R39">
-        <v>32015.77</v>
-      </c>
-      <c r="S39">
-        <v>78.46000000000001</v>
-      </c>
-      <c r="T39">
-        <v>371084.6</v>
-      </c>
-      <c r="U39">
-        <v>62674.42000000001</v>
-      </c>
-      <c r="V39">
+      <c r="R39" t="n">
         <v>91982.78999999999</v>
       </c>
-      <c r="W39">
+      <c r="S39" t="n">
         <v>-5808.8</v>
       </c>
-      <c r="X39">
+      <c r="T39" t="n">
         <v>8439.200000000001</v>
       </c>
-      <c r="Y39">
-        <v>2630.38</v>
-      </c>
-      <c r="Z39">
-        <v>26.51</v>
-      </c>
-      <c r="AA39">
-        <v>1139.95</v>
-      </c>
-      <c r="AB39">
+      <c r="U39" t="n">
+        <v>25471.38</v>
+      </c>
+      <c r="V39" t="n">
         <v>22840.98</v>
       </c>
-      <c r="AC39">
+      <c r="W39" t="n">
         <v>21644.03</v>
       </c>
-      <c r="AD39">
+      <c r="X39" t="n">
         <v>217283.7</v>
       </c>
-      <c r="AE39">
+      <c r="Y39" t="n">
         <v>447449.1</v>
       </c>
-      <c r="AF39">
+      <c r="Z39" t="n">
         <v>210379.6</v>
       </c>
-      <c r="AG39">
+      <c r="AA39" t="n">
         <v>935505.2</v>
       </c>
-      <c r="AH39">
+      <c r="AB39" t="n">
         <v>1145884.8</v>
       </c>
-      <c r="AI39">
+      <c r="AC39" t="n">
         <v>191889.4</v>
       </c>
-      <c r="AJ39">
+      <c r="AD39" t="n">
         <v>-45653.7</v>
       </c>
-      <c r="AK39">
+      <c r="AE39" t="n">
         <v>126.47</v>
       </c>
-      <c r="AL39">
+      <c r="AF39" t="n">
         <v>142.3433333333333</v>
       </c>
-      <c r="AM39">
+      <c r="AG39" t="n">
         <v>117.91</v>
       </c>
-      <c r="AN39">
+      <c r="AH39" t="n">
         <v>140.09</v>
       </c>
-      <c r="AO39">
+      <c r="AI39" t="n">
         <v>139.1533333333333</v>
       </c>
-      <c r="AP39">
+      <c r="AJ39" t="n">
         <v>130.7266666666667</v>
       </c>
-      <c r="AQ39">
+      <c r="AK39" t="n">
         <v>7.688411777777779</v>
       </c>
     </row>
-    <row r="40" spans="1:43">
-      <c r="A40" s="2">
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>44834</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>166286.69</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>8.753333333333332</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>106215.02</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>5670358.34</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="n">
         <v>10593.88</v>
       </c>
-      <c r="G40">
+      <c r="G40" t="n">
         <v>171887.68</v>
       </c>
-      <c r="H40">
+      <c r="H40" t="n">
         <v>20046.1</v>
       </c>
-      <c r="I40">
+      <c r="I40" t="n">
         <v>175612.95</v>
       </c>
-      <c r="J40">
+      <c r="J40" t="n">
         <v>1033445</v>
       </c>
-      <c r="K40">
+      <c r="K40" t="n">
         <v>6120958.470000001</v>
       </c>
-      <c r="L40">
+      <c r="L40" t="n">
         <v>131751.1</v>
       </c>
-      <c r="M40">
+      <c r="M40" t="n">
         <v>70028.21000000001</v>
       </c>
-      <c r="N40">
+      <c r="N40" t="n">
         <v>183601.2</v>
       </c>
-      <c r="O40">
+      <c r="O40" t="n">
         <v>4840114.23</v>
       </c>
-      <c r="P40">
+      <c r="P40" t="n">
         <v>162103.13</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" t="n">
         <v>33062.61</v>
       </c>
-      <c r="R40">
-        <v>32991.13</v>
-      </c>
-      <c r="S40">
-        <v>71.48</v>
-      </c>
-      <c r="T40">
-        <v>380324.85</v>
-      </c>
-      <c r="U40">
-        <v>61918.93</v>
-      </c>
-      <c r="V40">
+      <c r="R40" t="n">
         <v>93546.17</v>
       </c>
-      <c r="W40">
+      <c r="S40" t="n">
         <v>7248.54</v>
       </c>
-      <c r="X40">
+      <c r="T40" t="n">
         <v>-4340.48</v>
       </c>
-      <c r="Y40">
-        <v>2908.06</v>
-      </c>
-      <c r="Z40">
-        <v>8.959999999999999</v>
-      </c>
-      <c r="AA40">
-        <v>1011.31</v>
-      </c>
-      <c r="AB40">
+      <c r="U40" t="n">
+        <v>26813.17</v>
+      </c>
+      <c r="V40" t="n">
         <v>23905.13</v>
       </c>
-      <c r="AC40">
+      <c r="W40" t="n">
         <v>22828.8</v>
       </c>
-      <c r="AD40">
+      <c r="X40" t="n">
         <v>219947.6</v>
       </c>
-      <c r="AE40">
+      <c r="Y40" t="n">
         <v>453216.5</v>
       </c>
-      <c r="AF40">
+      <c r="Z40" t="n">
         <v>221486.7</v>
       </c>
-      <c r="AG40">
+      <c r="AA40" t="n">
         <v>950675.2</v>
       </c>
-      <c r="AH40">
+      <c r="AB40" t="n">
         <v>1172161.9</v>
       </c>
-      <c r="AI40">
+      <c r="AC40" t="n">
         <v>196033.2</v>
       </c>
-      <c r="AJ40">
+      <c r="AD40" t="n">
         <v>-56127.9</v>
       </c>
-      <c r="AK40">
+      <c r="AE40" t="n">
         <v>136.3566666666667</v>
       </c>
-      <c r="AL40">
+      <c r="AF40" t="n">
         <v>155.2333333333333</v>
       </c>
-      <c r="AM40">
+      <c r="AG40" t="n">
         <v>123.0733333333333</v>
       </c>
-      <c r="AN40">
+      <c r="AH40" t="n">
         <v>143.06</v>
       </c>
-      <c r="AO40">
+      <c r="AI40" t="n">
         <v>136.4233333333333</v>
       </c>
-      <c r="AP40">
+      <c r="AJ40" t="n">
         <v>131.7</v>
       </c>
-      <c r="AQ40">
+      <c r="AK40" t="n">
         <v>7.756594565217392</v>
       </c>
     </row>
-    <row r="41" spans="1:43">
-      <c r="A41" s="2">
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>174720.37</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>9.369999999999999</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>100436.26</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>6744459.560000001</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="n">
         <v>57417.93</v>
       </c>
-      <c r="G41">
+      <c r="G41" t="n">
         <v>164585.19</v>
       </c>
-      <c r="H41">
+      <c r="H41" t="n">
         <v>18106.48</v>
       </c>
-      <c r="I41">
+      <c r="I41" t="n">
         <v>207383.25</v>
       </c>
-      <c r="J41">
+      <c r="J41" t="n">
         <v>21200.69</v>
       </c>
-      <c r="K41">
+      <c r="K41" t="n">
         <v>5831539.31</v>
       </c>
-      <c r="L41">
+      <c r="L41" t="n">
         <v>184840.84</v>
       </c>
-      <c r="M41">
+      <c r="M41" t="n">
         <v>58462.53</v>
       </c>
-      <c r="N41">
+      <c r="N41" t="n">
         <v>190581.64</v>
       </c>
-      <c r="O41">
+      <c r="O41" t="n">
         <v>4928146.220000001</v>
       </c>
-      <c r="P41">
+      <c r="P41" t="n">
         <v>213275.94</v>
       </c>
-      <c r="Q41">
+      <c r="Q41" t="n">
         <v>33273.86</v>
       </c>
-      <c r="R41">
-        <v>33205.13</v>
-      </c>
-      <c r="S41">
-        <v>68.74000000000001</v>
-      </c>
-      <c r="T41">
-        <v>382907.79</v>
-      </c>
-      <c r="U41">
-        <v>63340.09999999999</v>
-      </c>
-      <c r="V41">
+      <c r="R41" t="n">
         <v>93553.70999999999</v>
       </c>
-      <c r="W41">
+      <c r="S41" t="n">
         <v>-571.91</v>
       </c>
-      <c r="X41">
+      <c r="T41" t="n">
         <v>8792.41</v>
       </c>
-      <c r="Y41">
-        <v>8220.5</v>
-      </c>
-      <c r="Z41">
-        <v>19.93</v>
-      </c>
-      <c r="AA41">
-        <v>1106.73</v>
-      </c>
-      <c r="AB41">
+      <c r="U41" t="n">
+        <v>32824.51</v>
+      </c>
+      <c r="V41" t="n">
         <v>24603.97</v>
       </c>
-      <c r="AC41">
+      <c r="W41" t="n">
         <v>23463.2</v>
       </c>
-      <c r="AD41">
+      <c r="X41" t="n">
         <v>230545.8</v>
       </c>
-      <c r="AE41">
+      <c r="Y41" t="n">
         <v>473422.8</v>
       </c>
-      <c r="AF41">
+      <c r="Z41" t="n">
         <v>221926.2</v>
       </c>
-      <c r="AG41">
+      <c r="AA41" t="n">
         <v>982591.6</v>
       </c>
-      <c r="AH41">
+      <c r="AB41" t="n">
         <v>1204517.8</v>
       </c>
-      <c r="AI41">
+      <c r="AC41" t="n">
         <v>205177.2</v>
       </c>
-      <c r="AJ41">
+      <c r="AD41" t="n">
         <v>-47877</v>
       </c>
-      <c r="AK41">
+      <c r="AE41" t="n">
         <v>145.9133333333333</v>
       </c>
-      <c r="AL41">
+      <c r="AF41" t="n">
         <v>166</v>
       </c>
-      <c r="AM41">
+      <c r="AG41" t="n">
         <v>132.71</v>
       </c>
-      <c r="AN41">
+      <c r="AH41" t="n">
         <v>154.58</v>
       </c>
-      <c r="AO41">
+      <c r="AI41" t="n">
         <v>142.9366666666666</v>
       </c>
-      <c r="AP41">
+      <c r="AJ41" t="n">
         <v>130.09</v>
       </c>
-      <c r="AQ41">
+      <c r="AK41" t="n">
         <v>7.849459673913043</v>
       </c>
     </row>
-    <row r="42" spans="1:43">
-      <c r="A42" s="2">
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>45016</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>172616.53</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>9.44</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>117441.58</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>6548013.9</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="n">
         <v>13762.88</v>
       </c>
-      <c r="G42">
+      <c r="G42" t="n">
         <v>160930.26</v>
       </c>
-      <c r="H42">
+      <c r="H42" t="n">
         <v>13602.28</v>
       </c>
-      <c r="I42">
+      <c r="I42" t="n">
         <v>173791.21</v>
       </c>
-      <c r="J42">
+      <c r="J42" t="n">
         <v>37883.36</v>
       </c>
-      <c r="K42">
+      <c r="K42" t="n">
         <v>5219771.49</v>
       </c>
-      <c r="L42">
+      <c r="L42" t="n">
         <v>209915.05</v>
       </c>
-      <c r="M42">
+      <c r="M42" t="n">
         <v>60687.24000000001</v>
       </c>
-      <c r="N42">
+      <c r="N42" t="n">
         <v>204243.45</v>
       </c>
-      <c r="O42">
+      <c r="O42" t="n">
         <v>4644164.1</v>
       </c>
-      <c r="P42">
+      <c r="P42" t="n">
         <v>239669.41</v>
       </c>
-      <c r="Q42">
+      <c r="Q42" t="n">
         <v>33220.47</v>
       </c>
-      <c r="R42">
-        <v>33154.49</v>
-      </c>
-      <c r="S42">
-        <v>65.98</v>
-      </c>
-      <c r="T42">
-        <v>379859.9</v>
-      </c>
-      <c r="U42">
-        <v>66835.44</v>
-      </c>
-      <c r="V42">
+      <c r="R42" t="n">
         <v>92851.52</v>
       </c>
-      <c r="W42">
+      <c r="S42" t="n">
         <v>-350.16</v>
       </c>
-      <c r="X42">
+      <c r="T42" t="n">
         <v>506.7500000000001</v>
       </c>
-      <c r="Y42">
-        <v>156.5899999999999</v>
-      </c>
-      <c r="Z42">
-        <v>3.33</v>
-      </c>
-      <c r="AA42">
-        <v>1374</v>
-      </c>
-      <c r="AB42">
+      <c r="U42" t="n">
+        <v>24535.62</v>
+      </c>
+      <c r="V42" t="n">
         <v>24375.71</v>
       </c>
-      <c r="AC42">
+      <c r="W42" t="n">
         <v>22981.38</v>
       </c>
-      <c r="AD42">
+      <c r="X42" t="n">
         <v>237632.8</v>
       </c>
-      <c r="AE42">
+      <c r="Y42" t="n">
         <v>491108.3</v>
       </c>
-      <c r="AF42">
+      <c r="Z42" t="n">
         <v>225585.5</v>
       </c>
-      <c r="AG42">
+      <c r="AA42" t="n">
         <v>1014178.5</v>
       </c>
-      <c r="AH42">
+      <c r="AB42" t="n">
         <v>1239764</v>
       </c>
-      <c r="AI42">
+      <c r="AC42" t="n">
         <v>213535.3</v>
       </c>
-      <c r="AJ42">
+      <c r="AD42" t="n">
         <v>-31028.7</v>
       </c>
-      <c r="AK42">
+      <c r="AE42" t="n">
         <v>137.87</v>
       </c>
-      <c r="AL42">
+      <c r="AF42" t="n">
         <v>152.7033333333333</v>
       </c>
-      <c r="AM42">
+      <c r="AG42" t="n">
         <v>135.39</v>
       </c>
-      <c r="AN42">
+      <c r="AH42" t="n">
         <v>155.2466666666666</v>
       </c>
-      <c r="AO42">
+      <c r="AI42" t="n">
         <v>136.69</v>
       </c>
-      <c r="AP42">
+      <c r="AJ42" t="n">
         <v>132.3133333333334</v>
       </c>
-      <c r="AQ42">
+      <c r="AK42" t="n">
         <v>7.828427777777778</v>
       </c>
     </row>
-    <row r="43" spans="1:43">
-      <c r="A43" s="2">
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>45107</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>175761.43</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>6.596666666666667</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>95025.12999999999</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>7289317.460000001</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="n">
         <v>15284.11</v>
       </c>
-      <c r="G43">
+      <c r="G43" t="n">
         <v>152515.98</v>
       </c>
-      <c r="H43">
+      <c r="H43" t="n">
         <v>16105.16</v>
       </c>
-      <c r="I43">
+      <c r="I43" t="n">
         <v>199860.31</v>
       </c>
-      <c r="J43">
+      <c r="J43" t="n">
         <v>1028830.8</v>
       </c>
-      <c r="K43">
+      <c r="K43" t="n">
         <v>5466364.119999999</v>
       </c>
-      <c r="L43">
+      <c r="L43" t="n">
         <v>170247.18</v>
       </c>
-      <c r="M43">
+      <c r="M43" t="n">
         <v>51223.16</v>
       </c>
-      <c r="N43">
+      <c r="N43" t="n">
         <v>230705.29</v>
       </c>
-      <c r="O43">
+      <c r="O43" t="n">
         <v>5427582.23</v>
       </c>
-      <c r="P43">
+      <c r="P43" t="n">
         <v>267232.94</v>
       </c>
-      <c r="Q43">
+      <c r="Q43" t="n">
         <v>33967.82</v>
       </c>
-      <c r="R43">
-        <v>33903.81</v>
-      </c>
-      <c r="S43">
-        <v>64.02000000000001</v>
-      </c>
-      <c r="T43">
-        <v>376718.62</v>
-      </c>
-      <c r="U43">
-        <v>68179.36</v>
-      </c>
-      <c r="V43">
+      <c r="R43" t="n">
         <v>92344.88</v>
       </c>
-      <c r="W43">
+      <c r="S43" t="n">
         <v>7332.969999999999</v>
       </c>
-      <c r="X43">
+      <c r="T43" t="n">
         <v>-2899.59</v>
       </c>
-      <c r="Y43">
-        <v>4433.389999999999</v>
-      </c>
-      <c r="Z43">
-        <v>13.75</v>
-      </c>
-      <c r="AA43">
-        <v>1176.07</v>
-      </c>
-      <c r="AB43">
+      <c r="U43" t="n">
+        <v>28915.15</v>
+      </c>
+      <c r="V43" t="n">
         <v>24468.01</v>
       </c>
-      <c r="AC43">
+      <c r="W43" t="n">
         <v>23271.43</v>
       </c>
-      <c r="AD43">
+      <c r="X43" t="n">
         <v>245155.2</v>
       </c>
-      <c r="AE43">
+      <c r="Y43" t="n">
         <v>504941.7</v>
       </c>
-      <c r="AF43">
+      <c r="Z43" t="n">
         <v>230759</v>
       </c>
-      <c r="AG43">
+      <c r="AA43" t="n">
         <v>1035562.3</v>
       </c>
-      <c r="AH43">
+      <c r="AB43" t="n">
         <v>1266321.1</v>
       </c>
-      <c r="AI43">
+      <c r="AC43" t="n">
         <v>219051.4</v>
       </c>
-      <c r="AJ43">
+      <c r="AD43" t="n">
         <v>-25495.4</v>
       </c>
-      <c r="AK43">
+      <c r="AE43" t="n">
         <v>121.4966666666667</v>
       </c>
-      <c r="AL43">
+      <c r="AF43" t="n">
         <v>156.2866666666667</v>
       </c>
-      <c r="AM43">
+      <c r="AG43" t="n">
         <v>118.8533333333333</v>
       </c>
-      <c r="AN43">
+      <c r="AH43" t="n">
         <v>156.6166666666666</v>
       </c>
-      <c r="AO43">
+      <c r="AI43" t="n">
         <v>137.3933333333333</v>
       </c>
-      <c r="AP43">
+      <c r="AJ43" t="n">
         <v>134.6866666666667</v>
       </c>
-      <c r="AQ43">
+      <c r="AK43" t="n">
         <v>7.815958426966293</v>
       </c>
     </row>
-    <row r="44" spans="1:43">
-      <c r="A44" s="2">
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>45199</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>179216.82</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>4.563333333333333</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>99277.28999999999</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>7383219.36</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="n">
         <v>13010.51</v>
       </c>
-      <c r="G44">
+      <c r="G44" t="n">
         <v>180846.82</v>
       </c>
-      <c r="H44">
+      <c r="H44" t="n">
         <v>17757.31</v>
       </c>
-      <c r="I44">
+      <c r="I44" t="n">
         <v>249215.49</v>
       </c>
-      <c r="J44">
+      <c r="J44" t="n">
         <v>69822.62</v>
       </c>
-      <c r="K44">
+      <c r="K44" t="n">
         <v>5349440.71</v>
       </c>
-      <c r="L44">
+      <c r="L44" t="n">
         <v>233144.18</v>
       </c>
-      <c r="M44">
+      <c r="M44" t="n">
         <v>56119.71</v>
       </c>
-      <c r="N44">
+      <c r="N44" t="n">
         <v>239611.03</v>
       </c>
-      <c r="O44">
+      <c r="O44" t="n">
         <v>5301866.16</v>
       </c>
-      <c r="P44">
+      <c r="P44" t="n">
         <v>300252.36</v>
       </c>
-      <c r="Q44">
+      <c r="Q44" t="n">
         <v>35868.56</v>
       </c>
-      <c r="R44">
-        <v>35811.34</v>
-      </c>
-      <c r="S44">
-        <v>57.20999999999999</v>
-      </c>
-      <c r="T44">
-        <v>376416.57</v>
-      </c>
-      <c r="U44">
-        <v>69299.17999999999</v>
-      </c>
-      <c r="V44">
+      <c r="R44" t="n">
         <v>91905.85000000001</v>
       </c>
-      <c r="W44">
+      <c r="S44" t="n">
         <v>-286.26</v>
       </c>
-      <c r="X44">
+      <c r="T44" t="n">
         <v>2479.1</v>
       </c>
-      <c r="Y44">
-        <v>2192.83</v>
-      </c>
-      <c r="Z44">
-        <v>16.63</v>
-      </c>
-      <c r="AA44">
-        <v>1411.69</v>
-      </c>
-      <c r="AB44">
+      <c r="U44" t="n">
+        <v>27862.2</v>
+      </c>
+      <c r="V44" t="n">
         <v>25652.74</v>
       </c>
-      <c r="AC44">
+      <c r="W44" t="n">
         <v>24220.71</v>
       </c>
-      <c r="AD44">
+      <c r="X44" t="n">
         <v>251406.7</v>
       </c>
-      <c r="AE44">
+      <c r="Y44" t="n">
         <v>511361.0000000001</v>
       </c>
-      <c r="AF44">
+      <c r="Z44" t="n">
         <v>231269</v>
       </c>
-      <c r="AG44">
+      <c r="AA44" t="n">
         <v>1056895.8</v>
       </c>
-      <c r="AH44">
+      <c r="AB44" t="n">
         <v>1288164.6</v>
       </c>
-      <c r="AI44">
+      <c r="AC44" t="n">
         <v>226073.9</v>
       </c>
-      <c r="AJ44">
+      <c r="AD44" t="n">
         <v>-27760.1</v>
       </c>
-      <c r="AK44">
+      <c r="AE44" t="n">
         <v>134.0633333333333</v>
       </c>
-      <c r="AL44">
+      <c r="AF44" t="n">
         <v>158.8633333333333</v>
       </c>
-      <c r="AM44">
+      <c r="AG44" t="n">
         <v>127.3833333333333</v>
       </c>
-      <c r="AN44">
+      <c r="AH44" t="n">
         <v>161.7766666666667</v>
       </c>
-      <c r="AO44">
+      <c r="AI44" t="n">
         <v>137.7833333333333</v>
       </c>
-      <c r="AP44">
+      <c r="AJ44" t="n">
         <v>135.1233333333333</v>
       </c>
-      <c r="AQ44">
+      <c r="AK44" t="n">
         <v>7.858886813186814</v>
       </c>
     </row>
-    <row r="45" spans="1:43">
-      <c r="A45" s="2">
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>45291</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>187342.98</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>4.486666666666667</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>98633.78000000001</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>7295268.1</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="n">
         <v>14672.85</v>
       </c>
-      <c r="G45">
+      <c r="G45" t="n">
         <v>163660.72</v>
       </c>
-      <c r="H45">
+      <c r="H45" t="n">
         <v>17450.46</v>
       </c>
-      <c r="I45">
+      <c r="I45" t="n">
         <v>262378.74</v>
       </c>
-      <c r="J45">
+      <c r="J45" t="n">
         <v>600093</v>
       </c>
-      <c r="K45">
+      <c r="K45" t="n">
         <v>5741722.81</v>
       </c>
-      <c r="L45">
+      <c r="L45" t="n">
         <v>227072.76</v>
       </c>
-      <c r="M45">
+      <c r="M45" t="n">
         <v>58230.08</v>
       </c>
-      <c r="N45">
+      <c r="N45" t="n">
         <v>229389.87</v>
       </c>
-      <c r="O45">
+      <c r="O45" t="n">
         <v>5233211.04</v>
       </c>
-      <c r="P45">
+      <c r="P45" t="n">
         <v>268837.9</v>
       </c>
-      <c r="Q45">
+      <c r="Q45" t="n">
         <v>37333.50999999999</v>
       </c>
-      <c r="R45">
-        <v>37279.14</v>
-      </c>
-      <c r="S45">
-        <v>54.37</v>
-      </c>
-      <c r="T45">
-        <v>375489.64</v>
-      </c>
-      <c r="U45">
-        <v>64211.88</v>
-      </c>
-      <c r="V45">
+      <c r="R45" t="n">
         <v>91458.91</v>
       </c>
-      <c r="W45">
+      <c r="S45" t="n">
         <v>4004.34</v>
       </c>
-      <c r="X45">
+      <c r="T45" t="n">
         <v>-556.5499999999997</v>
       </c>
-      <c r="Y45">
-        <v>3447.78</v>
-      </c>
-      <c r="Z45">
-        <v>18.54</v>
-      </c>
-      <c r="AA45">
-        <v>2364.19</v>
-      </c>
-      <c r="AB45">
+      <c r="U45" t="n">
+        <v>30933.46</v>
+      </c>
+      <c r="V45" t="n">
         <v>27467.14</v>
       </c>
-      <c r="AC45">
+      <c r="W45" t="n">
         <v>25074.28</v>
       </c>
-      <c r="AD45">
+      <c r="X45" t="n">
         <v>265115</v>
       </c>
-      <c r="AE45">
+      <c r="Y45" t="n">
         <v>524247.4</v>
       </c>
-      <c r="AF45">
+      <c r="Z45" t="n">
         <v>222935.4</v>
       </c>
-      <c r="AG45">
+      <c r="AA45" t="n">
         <v>1072527.6</v>
       </c>
-      <c r="AH45">
+      <c r="AB45" t="n">
         <v>1295463.2</v>
       </c>
-      <c r="AI45">
+      <c r="AC45" t="n">
         <v>235883.3</v>
       </c>
-      <c r="AJ45">
+      <c r="AD45" t="n">
         <v>-34769.8</v>
       </c>
-      <c r="AK45">
+      <c r="AE45" t="n">
         <v>147.2</v>
       </c>
-      <c r="AL45">
+      <c r="AF45" t="n">
         <v>155.8566666666667</v>
       </c>
-      <c r="AM45">
+      <c r="AG45" t="n">
         <v>136.37</v>
       </c>
-      <c r="AN45">
+      <c r="AH45" t="n">
         <v>166.36</v>
       </c>
-      <c r="AO45">
+      <c r="AI45" t="n">
         <v>149.7466666666667</v>
       </c>
-      <c r="AP45">
+      <c r="AJ45" t="n">
         <v>133.3833333333334</v>
       </c>
-      <c r="AQ45">
+      <c r="AK45" t="n">
         <v>7.831462499999999</v>
       </c>
     </row>
-    <row r="46" spans="1:43">
-      <c r="A46" s="2">
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>45382</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>186251.67</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>3.453333333333333</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>153637.57</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>7113085.579999999</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="n">
         <v>8686.25</v>
       </c>
-      <c r="G46">
+      <c r="G46" t="n">
         <v>151701.86</v>
       </c>
-      <c r="H46">
+      <c r="H46" t="n">
         <v>17317.13</v>
       </c>
-      <c r="I46">
+      <c r="I46" t="n">
         <v>240911.4</v>
       </c>
-      <c r="J46">
+      <c r="J46" t="n">
         <v>31116.31</v>
       </c>
-      <c r="K46">
+      <c r="K46" t="n">
         <v>5670990.28</v>
       </c>
-      <c r="L46">
+      <c r="L46" t="n">
         <v>279520.75</v>
       </c>
-      <c r="M46">
+      <c r="M46" t="n">
         <v>88076.84</v>
       </c>
-      <c r="N46">
+      <c r="N46" t="n">
         <v>256152.49</v>
       </c>
-      <c r="O46">
+      <c r="O46" t="n">
         <v>4899835.48</v>
       </c>
-      <c r="P46">
+      <c r="P46" t="n">
         <v>282070.95</v>
       </c>
-      <c r="Q46">
+      <c r="Q46" t="n">
         <v>37068.31</v>
       </c>
-      <c r="R46">
-        <v>37018.82</v>
-      </c>
-      <c r="S46">
-        <v>49.49000000000001</v>
-      </c>
-      <c r="T46">
-        <v>375327.47</v>
-      </c>
-      <c r="U46">
-        <v>59901.64</v>
-      </c>
-      <c r="V46">
+      <c r="R46" t="n">
         <v>91457.81</v>
       </c>
-      <c r="W46">
+      <c r="S46" t="n">
         <v>-928.61</v>
       </c>
-      <c r="X46">
+      <c r="T46" t="n">
         <v>-2309.32</v>
       </c>
-      <c r="Y46">
-        <v>-3237.94</v>
-      </c>
-      <c r="Z46">
-        <v>4.44</v>
-      </c>
-      <c r="AA46">
-        <v>1578.76</v>
-      </c>
-      <c r="AB46">
+      <c r="U46" t="n">
+        <v>23066.92</v>
+      </c>
+      <c r="V46" t="n">
         <v>26301.21</v>
       </c>
-      <c r="AC46">
+      <c r="W46" t="n">
         <v>24705.7</v>
       </c>
-      <c r="AD46">
+      <c r="X46" t="n">
         <v>268023.2</v>
       </c>
-      <c r="AE46">
+      <c r="Y46" t="n">
         <v>538705.7999999999</v>
       </c>
-      <c r="AF46">
+      <c r="Z46" t="n">
         <v>221884.5</v>
       </c>
-      <c r="AG46">
+      <c r="AA46" t="n">
         <v>1093788.6</v>
       </c>
-      <c r="AH46">
+      <c r="AB46" t="n">
         <v>1315673.2</v>
       </c>
-      <c r="AI46">
+      <c r="AC46" t="n">
         <v>241648.7</v>
       </c>
-      <c r="AJ46">
+      <c r="AD46" t="n">
         <v>-29002.6</v>
       </c>
-      <c r="AK46">
+      <c r="AE46" t="n">
         <v>140.8866666666667</v>
       </c>
-      <c r="AL46">
+      <c r="AF46" t="n">
         <v>150.7633333333333</v>
       </c>
-      <c r="AM46">
+      <c r="AG46" t="n">
         <v>139.11</v>
       </c>
-      <c r="AN46">
+      <c r="AH46" t="n">
         <v>165.44</v>
       </c>
-      <c r="AO46">
+      <c r="AI46" t="n">
         <v>141.4466666666667</v>
       </c>
-      <c r="AP46">
+      <c r="AJ46" t="n">
         <v>133.59</v>
       </c>
-      <c r="AQ46">
+      <c r="AK46" t="n">
         <v>7.810839670329671</v>
       </c>
     </row>
-    <row r="47" spans="1:43">
-      <c r="A47" s="2">
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>45473</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>190042.81</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>3.58</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>140474.3</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>8184463.66</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="n">
         <v>15744.9</v>
       </c>
-      <c r="G47">
+      <c r="G47" t="n">
         <v>156402.85</v>
       </c>
-      <c r="H47">
+      <c r="H47" t="n">
         <v>19693.07</v>
       </c>
-      <c r="I47">
+      <c r="I47" t="n">
         <v>236199.51</v>
       </c>
-      <c r="J47">
+      <c r="J47" t="n">
         <v>46937.82000000001</v>
       </c>
-      <c r="K47">
+      <c r="K47" t="n">
         <v>6698565.57</v>
       </c>
-      <c r="L47">
+      <c r="L47" t="n">
         <v>223521.89</v>
       </c>
-      <c r="M47">
+      <c r="M47" t="n">
         <v>54888.6</v>
       </c>
-      <c r="N47">
+      <c r="N47" t="n">
         <v>243404.87</v>
       </c>
-      <c r="O47">
+      <c r="O47" t="n">
         <v>5795705.609999999</v>
       </c>
-      <c r="P47">
+      <c r="P47" t="n">
         <v>282293.33</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" t="n">
         <v>36760.92</v>
       </c>
-      <c r="R47">
-        <v>36713.33</v>
-      </c>
-      <c r="S47">
-        <v>47.59</v>
-      </c>
-      <c r="T47">
-        <v>379205.07</v>
-      </c>
-      <c r="U47">
-        <v>58532.64999999999</v>
-      </c>
-      <c r="V47">
+      <c r="R47" t="n">
         <v>93809.84</v>
       </c>
-      <c r="W47">
+      <c r="S47" t="n">
         <v>-531.51</v>
       </c>
-      <c r="X47">
+      <c r="T47" t="n">
         <v>1985.14</v>
       </c>
-      <c r="Y47">
-        <v>1453.61</v>
-      </c>
-      <c r="Z47">
-        <v>1</v>
-      </c>
-      <c r="AA47">
-        <v>1305.64</v>
-      </c>
-      <c r="AB47">
+      <c r="U47" t="n">
+        <v>27693.73</v>
+      </c>
+      <c r="V47" t="n">
         <v>26243.73</v>
       </c>
-      <c r="AC47">
+      <c r="W47" t="n">
         <v>24924.17</v>
       </c>
-      <c r="AD47">
+      <c r="X47" t="n">
         <v>269154</v>
       </c>
-      <c r="AE47">
+      <c r="Y47" t="n">
         <v>540250.8</v>
       </c>
-      <c r="AF47">
+      <c r="Z47" t="n">
         <v>226794.8</v>
       </c>
-      <c r="AG47">
+      <c r="AA47" t="n">
         <v>1107644.7</v>
       </c>
-      <c r="AH47">
+      <c r="AB47" t="n">
         <v>1334439.4</v>
       </c>
-      <c r="AI47">
+      <c r="AC47" t="n">
         <v>241964.2</v>
       </c>
-      <c r="AJ47">
+      <c r="AD47" t="n">
         <v>-34770.8</v>
       </c>
-      <c r="AK47">
+      <c r="AE47" t="n">
         <v>131.76</v>
       </c>
-      <c r="AL47">
+      <c r="AF47" t="n">
         <v>150.57</v>
       </c>
-      <c r="AM47">
+      <c r="AG47" t="n">
         <v>125.1266666666667</v>
       </c>
-      <c r="AN47">
+      <c r="AH47" t="n">
         <v>167.4</v>
       </c>
-      <c r="AO47">
+      <c r="AI47" t="n">
         <v>146.88</v>
       </c>
-      <c r="AP47">
+      <c r="AJ47" t="n">
         <v>136.0633333333333</v>
       </c>
-      <c r="AQ47">
+      <c r="AK47" t="n">
         <v>7.770798555555555</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>